--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465F5D8-5768-48BC-8A11-1E9871C7CA57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB43AC0-268A-488C-AAB1-6B0A67954138}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
@@ -139,8 +139,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -387,15 +387,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,11 +397,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1321,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91BBA52-B91B-4F5E-B7BC-4C07D43FF9FB}">
   <dimension ref="B2:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4956,12 +4956,12 @@
       <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
@@ -4981,14 +4981,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
       <c r="P4" s="17" t="s">
         <v>2</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5066,49 +5066,49 @@
       <c r="P5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;0",$E6:$E25,"&lt;=10")/20)*(COUNTIFS($E6:$E250,"&gt;0",$E6:$E250,"&lt;=10")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;10",$E6:$E25,"&lt;=20")/20)*(COUNTIFS($E6:$E250,"&gt;10",$E6:$E250,"&lt;=20")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;20",$E6:$E25,"&lt;=30")/20)*(COUNTIFS($E6:$E250,"&gt;20",$E6:$E250,"&lt;=30")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;30",$E6:$E25,"&lt;=40")/20)*(COUNTIFS($E6:$E250,"&gt;30",$E6:$E250,"&lt;=40")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;40",$E6:$E25,"&lt;=50")/20)*(COUNTIFS($E6:$E250,"&gt;40",$E6:$E250,"&lt;=50")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>6.363636363636363E-3</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;50",$E6:$E25,"&lt;=60")/20)*(COUNTIFS($E6:$E250,"&gt;50",$E6:$E250,"&lt;=60")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>1.8181818181818184E-2</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;60",$E6:$E25,"&lt;=70")/20)*(COUNTIFS($E6:$E250,"&gt;60",$E6:$E250,"&lt;=70")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;70",$E6:$E25,"&lt;=80")/20)*(COUNTIFS($E6:$E250,"&gt;70",$E6:$E250,"&lt;=80")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>8.1818181818181807E-3</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;80",$E6:$E25,"&lt;=90")/20)*(COUNTIFS($E6:$E250,"&gt;80",$E6:$E250,"&lt;=90")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>4.3636363636363633E-2</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="31">
         <f>(COUNTIFS($E6:$E25,"&gt;90",$E6:$E25,"&lt;=100")/20)*(COUNTIFS($E6:$E250,"&gt;90",$E6:$E250,"&lt;=100")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>8.1818181818181807E-3</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="5">
@@ -5148,19 +5148,19 @@
         <v>0.32937546176836702</v>
       </c>
       <c r="P6" s="20"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
       <c r="C7" s="5">
@@ -5202,39 +5202,39 @@
       <c r="P7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="U7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="V7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="X7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Z7" s="33" t="s">
+      <c r="Z7" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <v>3</v>
       </c>
       <c r="C8" s="5">
@@ -5276,49 +5276,49 @@
       <c r="P8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;0",$F6:$F25,"&lt;=10")/20)*(COUNTIFS($F6:$F250,"&gt;0",$F6:$F250,"&lt;=10")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;10",$F6:$F25,"&lt;=20")/20)*(COUNTIFS($F6:$F250,"&gt;10",$F6:$F250,"&lt;=20")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;20",$F6:$F25,"&lt;=30")/20)*(COUNTIFS($F6:$F250,"&gt;20",$F6:$F250,"&lt;=30")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>5.454545454545455E-3</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;30",$F6:$F25,"&lt;=40")/20)*(COUNTIFS($F6:$F250,"&gt;30",$F6:$F250,"&lt;=40")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>1.6363636363636361E-2</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;40",$F6:$F25,"&lt;=50")/20)*(COUNTIFS($F6:$F250,"&gt;40",$F6:$F250,"&lt;=50")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;50",$F6:$F25,"&lt;=60")/20)*(COUNTIFS($F6:$F250,"&gt;50",$F6:$F250,"&lt;=60")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>1.6363636363636361E-2</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;60",$F6:$F25,"&lt;=70")/20)*(COUNTIFS($F6:$F250,"&gt;60",$F6:$F250,"&lt;=70")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;70",$F6:$F25,"&lt;=80")/20)*(COUNTIFS($F6:$F250,"&gt;70",$F6:$F250,"&lt;=80")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>2.181818181818182E-2</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;80",$F6:$F25,"&lt;=90")/20)*(COUNTIFS($F6:$F250,"&gt;80",$F6:$F250,"&lt;=90")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>1.9090909090909089E-2</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="31">
         <f>(COUNTIFS($F6:$F25,"&gt;90",$F6:$F25,"&lt;=100")/20)*(COUNTIFS($F6:$F250,"&gt;90",$F6:$F250,"&lt;=100")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>4.9090909090909088E-2</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
       <c r="C9" s="5">
@@ -5358,19 +5358,19 @@
         <v>0.32899703695948901</v>
       </c>
       <c r="P9" s="20"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>5</v>
       </c>
       <c r="C10" s="5">
@@ -5412,35 +5412,35 @@
       <c r="P10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="32">
         <v>1</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="32">
         <v>2</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="32">
         <v>3</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="32">
         <v>4</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="32">
         <v>5</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="32">
         <v>6</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="32">
         <v>7</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="32">
         <v>8</v>
       </c>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
       <c r="C11" s="5">
@@ -5482,43 +5482,43 @@
       <c r="P11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="31">
         <f>(COUNTIF($G6:$G25,Q10)/20)*(COUNTIF($G6:$G250,Q10)/(245-COUNTBLANK($G6:$G250)))</f>
         <v>2.7272727272727275E-3</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="31">
         <f t="shared" ref="R11:X11" si="0">(COUNTIF($G6:$G25,R10)/20)*(COUNTIF($G6:$G250,R10)/(245-COUNTBLANK($G6:$G250)))</f>
         <v>0</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="31">
         <f t="shared" si="0"/>
         <v>4.0909090909090909E-2</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="31">
         <f t="shared" si="0"/>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="31">
         <f t="shared" si="0"/>
         <v>3.6363636363636369E-2</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="31">
         <f t="shared" si="0"/>
         <v>1.6363636363636361E-2</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="31">
         <f t="shared" si="0"/>
         <v>2.7272727272727275E-3</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11" s="31">
         <f t="shared" si="0"/>
         <v>3.5454545454545454E-2</v>
       </c>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
+      <c r="B12" s="25">
         <v>7</v>
       </c>
       <c r="C12" s="5">
@@ -5557,19 +5557,19 @@
       <c r="N12" s="13">
         <v>0.32884858459682298</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <v>8</v>
       </c>
       <c r="C13" s="4">
@@ -5608,26 +5608,26 @@
       <c r="N13" s="13">
         <v>0.32882026709411699</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
+      <c r="B14" s="25">
         <v>9</v>
       </c>
       <c r="C14" s="5">
@@ -5666,28 +5666,28 @@
       <c r="N14" s="13">
         <v>0.32879624012212499</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="31">
         <f>(COUNTIF($H6:$H25,Q13)/20)*(COUNTIF($H6:$H250,Q13)/(245-COUNTBLANK($H6:$H250)))</f>
         <v>0.32</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="31">
         <f>(COUNTIF($H6:$H25,R13)/20)*(COUNTIF($H6:$H250,R13)/(245-COUNTBLANK($H6:$H250)))</f>
         <v>0.18818181818181817</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
       <c r="C15" s="5">
@@ -5728,7 +5728,7 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+      <c r="B16" s="25">
         <v>11</v>
       </c>
       <c r="C16" s="5">
@@ -5769,7 +5769,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>12</v>
       </c>
       <c r="C17" s="5">
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
+      <c r="B18" s="25">
         <v>13</v>
       </c>
       <c r="C18" s="5">
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>14</v>
       </c>
       <c r="C19" s="5">
@@ -5892,7 +5892,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="B20" s="25">
         <v>15</v>
       </c>
       <c r="C20" s="5">
@@ -5933,7 +5933,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>16</v>
       </c>
       <c r="C21" s="5">
@@ -5974,7 +5974,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+      <c r="B22" s="25">
         <v>17</v>
       </c>
       <c r="C22" s="5">
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="29">
+      <c r="B23" s="26">
         <v>18</v>
       </c>
       <c r="C23" s="4">
@@ -6056,7 +6056,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+      <c r="B24" s="25">
         <v>19</v>
       </c>
       <c r="C24" s="5">
@@ -6097,7 +6097,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>20</v>
       </c>
       <c r="C25" s="5">
@@ -6138,7 +6138,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
+      <c r="B26" s="25">
         <v>21</v>
       </c>
       <c r="C26" s="4">
@@ -6179,7 +6179,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>22</v>
       </c>
       <c r="C27" s="5">
@@ -6220,7 +6220,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
+      <c r="B28" s="25">
         <v>23</v>
       </c>
       <c r="C28" s="5">
@@ -6261,7 +6261,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+      <c r="B29" s="26">
         <v>24</v>
       </c>
       <c r="C29" s="5">
@@ -6302,7 +6302,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
+      <c r="B30" s="25">
         <v>25</v>
       </c>
       <c r="C30" s="5">
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="29">
+      <c r="B31" s="26">
         <v>26</v>
       </c>
       <c r="C31" s="5">
@@ -6384,7 +6384,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="28">
+      <c r="B32" s="25">
         <v>27</v>
       </c>
       <c r="C32" s="5">
@@ -6425,7 +6425,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="29">
+      <c r="B33" s="26">
         <v>28</v>
       </c>
       <c r="C33" s="5">
@@ -6466,7 +6466,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+      <c r="B34" s="25">
         <v>29</v>
       </c>
       <c r="C34" s="4">
@@ -6507,7 +6507,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="29">
+      <c r="B35" s="26">
         <v>30</v>
       </c>
       <c r="C35" s="5">
@@ -6548,7 +6548,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
+      <c r="B36" s="25">
         <v>31</v>
       </c>
       <c r="C36" s="5">
@@ -6589,7 +6589,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="29">
+      <c r="B37" s="26">
         <v>32</v>
       </c>
       <c r="C37" s="5">
@@ -6630,7 +6630,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="28">
+      <c r="B38" s="25">
         <v>33</v>
       </c>
       <c r="C38" s="5">
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+      <c r="B39" s="26">
         <v>34</v>
       </c>
       <c r="C39" s="5">
@@ -6712,7 +6712,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="30">
+      <c r="B40" s="27">
         <v>35</v>
       </c>
       <c r="C40" s="9">
@@ -6753,7 +6753,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="29">
+      <c r="B41" s="26">
         <v>36</v>
       </c>
       <c r="C41" s="5">
@@ -6794,7 +6794,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="28">
+      <c r="B42" s="25">
         <v>37</v>
       </c>
       <c r="C42" s="5">
@@ -6835,7 +6835,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="29">
+      <c r="B43" s="26">
         <v>38</v>
       </c>
       <c r="C43" s="5">
@@ -6876,7 +6876,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="28">
+      <c r="B44" s="25">
         <v>39</v>
       </c>
       <c r="C44" s="5">
@@ -6917,7 +6917,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="29">
+      <c r="B45" s="26">
         <v>40</v>
       </c>
       <c r="C45" s="5">
@@ -6958,7 +6958,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="28">
+      <c r="B46" s="25">
         <v>41</v>
       </c>
       <c r="C46" s="5">
@@ -6999,7 +6999,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="29">
+      <c r="B47" s="26">
         <v>42</v>
       </c>
       <c r="C47" s="5">
@@ -7040,7 +7040,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="28">
+      <c r="B48" s="25">
         <v>43</v>
       </c>
       <c r="C48" s="5">
@@ -7081,7 +7081,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="29">
+      <c r="B49" s="26">
         <v>44</v>
       </c>
       <c r="C49" s="5">
@@ -7122,7 +7122,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="28">
+      <c r="B50" s="25">
         <v>45</v>
       </c>
       <c r="C50" s="4">
@@ -7163,7 +7163,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="29">
+      <c r="B51" s="26">
         <v>46</v>
       </c>
       <c r="C51" s="5">
@@ -7204,7 +7204,7 @@
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="28">
+      <c r="B52" s="25">
         <v>47</v>
       </c>
       <c r="C52" s="5">
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="29">
+      <c r="B53" s="26">
         <v>48</v>
       </c>
       <c r="C53" s="5">
@@ -7286,7 +7286,7 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="28">
+      <c r="B54" s="25">
         <v>49</v>
       </c>
       <c r="C54" s="5">
@@ -7327,7 +7327,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="29">
+      <c r="B55" s="26">
         <v>50</v>
       </c>
       <c r="C55" s="5">
@@ -7368,7 +7368,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="28">
+      <c r="B56" s="25">
         <v>51</v>
       </c>
       <c r="C56" s="5">
@@ -7409,7 +7409,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="29">
+      <c r="B57" s="26">
         <v>52</v>
       </c>
       <c r="C57" s="5">
@@ -7450,7 +7450,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="28">
+      <c r="B58" s="25">
         <v>53</v>
       </c>
       <c r="C58" s="5">
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="29">
+      <c r="B59" s="26">
         <v>54</v>
       </c>
       <c r="C59" s="5">
@@ -7532,7 +7532,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="28">
+      <c r="B60" s="25">
         <v>55</v>
       </c>
       <c r="C60" s="5">
@@ -7577,7 +7577,7 @@
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="P2:S2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -7619,12 +7619,12 @@
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
@@ -7644,14 +7644,14 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
       <c r="O4" s="17" t="s">
         <v>2</v>
       </c>

--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB43AC0-268A-488C-AAB1-6B0A67954138}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B2E24-EF76-4875-A0B6-6FBA0966D607}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
-    <sheet name="Random Forest - Experiment 3b" sheetId="2" r:id="rId2"/>
+    <sheet name="Random Forest - Experiment  3b" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="36">
   <si>
     <t>Run</t>
   </si>
@@ -124,13 +124,16 @@
     <t>3 to 6</t>
   </si>
   <si>
-    <t>Percentage in top 10</t>
-  </si>
-  <si>
     <t>Ratio in top 20</t>
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Ratio in top 5</t>
+  </si>
+  <si>
+    <t>Experiment 3a</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -328,12 +331,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,14 +381,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,12 +395,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,10 +416,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,138 +564,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -692,9 +581,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -702,7 +598,101 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -711,12 +701,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2257,6 +2241,1183 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$4:$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50 to  60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60 to 70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70 to 80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80 to 90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90 to 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09E1-4AEC-B6A5-BCAE8A646B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445915808"/>
+        <c:axId val="455287040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445915808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455287040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455287040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445915808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min_samples_leaf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$7:$U$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50 to  60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60 to 70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70 to 80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80 to 90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90 to 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$8:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9444444444444449E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F6-431F-ACC8-0353853E3A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445915808"/>
+        <c:axId val="455287040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445915808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455287040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455287040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445915808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max_features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CC4-42CC-BC73-31DCF83D477B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="286964192"/>
+        <c:axId val="286962552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="286964192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286962552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286962552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286964192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>criterion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$13:$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>entropy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment  3b'!$Q$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.1944444444444442E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2222222222222229E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECA2-4102-8D62-41C7BBC70C7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="447785072"/>
+        <c:axId val="447785728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="447785072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447785728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447785728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447785072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2417,6 +3578,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3927,6 +5248,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4580,6 +7913,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516CCA3F-C801-4DA3-909C-575A3C7002D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158EAA9D-E552-4D2E-A8AB-D9EBA514C501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159189D2-C38A-4CE1-9D9C-14D1728D3220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20372EC3-5785-4F7A-9610-C5B32A49B32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
@@ -4605,24 +8095,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56060543-B22D-4AE0-80F9-C55420AF80F5}" name="Table13" displayName="Table13" ref="B5:M60" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="B5:M60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
-  <sortState ref="B6:M60">
-    <sortCondition descending="1" ref="M5:M60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
+  <sortState ref="C6:N60">
+    <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F528E08B-BBC8-48D4-A4B3-CBAC432F8F94}" name="Run" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B0A521A9-6EA3-4663-BA50-B51AC158E06D}" name="Sample" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CAED7CE3-C618-4BEB-BF7A-A158713F5A3A}" name="n_estimators" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{7FA9926B-3EBB-4AF2-8B96-3801599DC305}" name="min_samples_leaf" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B17C6457-BD52-4AA1-BFAB-751B5E8B2D9E}" name="max_features" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3D8FD82D-3B3D-484F-B5F2-0A4A8D179B52}" name="criterion" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{0551ED70-EABC-4AB5-8821-73AEDEC0F661}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{C1FBF2B1-190C-4A9A-8E6A-54544142A8CC}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{0356E409-518C-4238-A3FC-AB8FA88493DF}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{82184FC8-DC6D-46C9-8D23-3675E51DA44A}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{8463C9E7-1CF6-4763-8CE2-B3D0F5DFA894}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{1A16211B-AB51-4ABC-8CB2-03EA81D741CB}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4927,8 +8417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91BBA52-B91B-4F5E-B7BC-4C07D43FF9FB}">
   <dimension ref="B2:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,28 +8433,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="P2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4981,21 +8471,21 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="P4" s="17" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -5024,8 +8514,8 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>34</v>
+      <c r="B5" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -5063,52 +8553,52 @@
       <c r="N5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;0",$E6:$E25,"&lt;=10")/20)*(COUNTIFS($E6:$E250,"&gt;0",$E6:$E250,"&lt;=10")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;10",$E6:$E25,"&lt;=20")/20)*(COUNTIFS($E6:$E250,"&gt;10",$E6:$E250,"&lt;=20")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;20",$E6:$E25,"&lt;=30")/20)*(COUNTIFS($E6:$E250,"&gt;20",$E6:$E250,"&lt;=30")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;30",$E6:$E25,"&lt;=40")/20)*(COUNTIFS($E6:$E250,"&gt;30",$E6:$E250,"&lt;=40")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;40",$E6:$E25,"&lt;=50")/20)*(COUNTIFS($E6:$E250,"&gt;40",$E6:$E250,"&lt;=50")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>6.363636363636363E-3</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;50",$E6:$E25,"&lt;=60")/20)*(COUNTIFS($E6:$E250,"&gt;50",$E6:$E250,"&lt;=60")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>1.8181818181818184E-2</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;60",$E6:$E25,"&lt;=70")/20)*(COUNTIFS($E6:$E250,"&gt;60",$E6:$E250,"&lt;=70")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;70",$E6:$E25,"&lt;=80")/20)*(COUNTIFS($E6:$E250,"&gt;70",$E6:$E250,"&lt;=80")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>8.1818181818181807E-3</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;80",$E6:$E25,"&lt;=90")/20)*(COUNTIFS($E6:$E250,"&gt;80",$E6:$E250,"&lt;=90")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>4.3636363636363633E-2</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="24">
         <f>(COUNTIFS($E6:$E25,"&gt;90",$E6:$E25,"&lt;=100")/20)*(COUNTIFS($E6:$E250,"&gt;90",$E6:$E250,"&lt;=100")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>8.1818181818181807E-3</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
       <c r="C6" s="5">
@@ -5129,38 +8619,38 @@
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0.32948332023299098</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>0.32493761562990098</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>0.333062171559592</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>0.330018741118563</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>0.32937546176836702</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
       <c r="C7" s="5">
@@ -5181,60 +8671,60 @@
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0.32921559272467599</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>0.32436096780726198</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>0.331963794754564</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>0.331309338294352</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>2.98E-3</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>0.32921242160127701</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="R7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="T7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="U7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="30" t="s">
+      <c r="V7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="30" t="s">
+      <c r="Y7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Z7" s="30" t="s">
+      <c r="Z7" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="18">
         <v>3</v>
       </c>
       <c r="C8" s="5">
@@ -5255,70 +8745,70 @@
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.32937005090255</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>0.32582318192895499</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>0.332276145658494</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>0.32935971277347897</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>2.2899999999999999E-3</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>0.32920727296442198</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;0",$F6:$F25,"&lt;=10")/20)*(COUNTIFS($F6:$F250,"&gt;0",$F6:$F250,"&lt;=10")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;10",$F6:$F25,"&lt;=20")/20)*(COUNTIFS($F6:$F250,"&gt;10",$F6:$F250,"&lt;=20")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;20",$F6:$F25,"&lt;=30")/20)*(COUNTIFS($F6:$F250,"&gt;20",$F6:$F250,"&lt;=30")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>5.454545454545455E-3</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;30",$F6:$F25,"&lt;=40")/20)*(COUNTIFS($F6:$F250,"&gt;30",$F6:$F250,"&lt;=40")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>1.6363636363636361E-2</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;40",$F6:$F25,"&lt;=50")/20)*(COUNTIFS($F6:$F250,"&gt;40",$F6:$F250,"&lt;=50")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;50",$F6:$F25,"&lt;=60")/20)*(COUNTIFS($F6:$F250,"&gt;50",$F6:$F250,"&lt;=60")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>1.6363636363636361E-2</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;60",$F6:$F25,"&lt;=70")/20)*(COUNTIFS($F6:$F250,"&gt;60",$F6:$F250,"&lt;=70")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;70",$F6:$F25,"&lt;=80")/20)*(COUNTIFS($F6:$F250,"&gt;70",$F6:$F250,"&lt;=80")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>2.181818181818182E-2</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Y8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;80",$F6:$F25,"&lt;=90")/20)*(COUNTIFS($F6:$F250,"&gt;80",$F6:$F250,"&lt;=90")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>1.9090909090909089E-2</v>
       </c>
-      <c r="Z8" s="31">
+      <c r="Z8" s="24">
         <f>(COUNTIFS($F6:$F25,"&gt;90",$F6:$F25,"&lt;=100")/20)*(COUNTIFS($F6:$F250,"&gt;90",$F6:$F250,"&lt;=100")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>4.9090909090909088E-2</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
       <c r="C9" s="5">
@@ -5339,38 +8829,38 @@
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>0.32964121081481801</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>0.325425020337133</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>0.33226241594843098</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>0.32865949515682802</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>2.4499999999999999E-3</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>0.32899703695948901</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
+      <c r="B10" s="18">
         <v>5</v>
       </c>
       <c r="C10" s="5">
@@ -5391,56 +8881,56 @@
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0.32842613981554197</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>0.32524996653383098</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>0.33259879384497099</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>0.32968579450672397</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>2.64E-3</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <v>0.32899017211034898</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="25">
         <v>1</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="25">
         <v>2</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="25">
         <v>3</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="25">
         <v>4</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="25">
         <v>5</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="25">
         <v>6</v>
       </c>
-      <c r="W10" s="32">
+      <c r="W10" s="25">
         <v>7</v>
       </c>
-      <c r="X10" s="32">
+      <c r="X10" s="25">
         <v>8</v>
       </c>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="26">
+      <c r="B11" s="19">
         <v>6</v>
       </c>
       <c r="C11" s="5">
@@ -5461,64 +8951,64 @@
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>0.32867670530409299</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>0.324745399689022</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>0.33234479420880803</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>0.329902038182454</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>0.32891723308822901</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="24">
         <f>(COUNTIF($G6:$G25,Q10)/20)*(COUNTIF($G6:$G250,Q10)/(245-COUNTBLANK($G6:$G250)))</f>
         <v>2.7272727272727275E-3</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="24">
         <f t="shared" ref="R11:X11" si="0">(COUNTIF($G6:$G25,R10)/20)*(COUNTIF($G6:$G250,R10)/(245-COUNTBLANK($G6:$G250)))</f>
         <v>0</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="24">
         <f t="shared" si="0"/>
         <v>4.0909090909090909E-2</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="24">
         <f t="shared" si="0"/>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="24">
         <f t="shared" si="0"/>
         <v>3.6363636363636369E-2</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="24">
         <f t="shared" si="0"/>
         <v>1.6363636363636361E-2</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="24">
         <f t="shared" si="0"/>
         <v>2.7272727272727275E-3</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="24">
         <f t="shared" si="0"/>
         <v>3.5454545454545454E-2</v>
       </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="25">
+      <c r="B12" s="18">
         <v>7</v>
       </c>
       <c r="C12" s="5">
@@ -5539,95 +9029,95 @@
       <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>0.32803484576492797</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>0.32541815548210101</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>0.33262282083757999</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>0.32931852350191099</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>2.5899999999999999E-3</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <v>0.32884858459682298</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="26">
+      <c r="B13" s="19">
         <v>8</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="27">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="27">
         <v>68</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="27">
         <v>36</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="27">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>0.32822019557837701</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>0.32452572432801602</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>0.33302784728443402</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>0.32950730766326303</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>3.0400000000000002E-3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>0.32882026709411699</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="30" t="s">
+      <c r="R13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
+      <c r="B14" s="18">
         <v>9</v>
       </c>
       <c r="C14" s="5">
@@ -5648,46 +9138,46 @@
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0.328879217137306</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>0.32588839805175401</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>0.33137684964937703</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>0.329040495918829</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>0.32879624012212499</v>
       </c>
-      <c r="P14" s="28" t="s">
+      <c r="P14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="24">
         <f>(COUNTIF($H6:$H25,Q13)/20)*(COUNTIF($H6:$H250,Q13)/(245-COUNTBLANK($H6:$H250)))</f>
         <v>0.32</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="24">
         <f>(COUNTIF($H6:$H25,R13)/20)*(COUNTIF($H6:$H250,R13)/(245-COUNTBLANK($H6:$H250)))</f>
         <v>0.18818181818181817</v>
       </c>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="26">
+      <c r="B15" s="19">
         <v>10</v>
       </c>
       <c r="C15" s="5">
@@ -5708,27 +9198,27 @@
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>0.32929797041954201</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.32469048084877</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>0.33177844366871501</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>0.32930136130542498</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>0.32876706451327697</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="18">
         <v>11</v>
       </c>
       <c r="C16" s="5">
@@ -5749,27 +9239,27 @@
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>0.328807136654298</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>0.324951345339964</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>0.33211482156525501</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>0.32897527957217998</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>0.328712145720152</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
+      <c r="B17" s="19">
         <v>12</v>
       </c>
       <c r="C17" s="5">
@@ -5790,27 +9280,27 @@
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>0.32879683944243998</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.32420994099657102</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>0.33226584837594603</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>0.32942836155942501</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>0.32867524715602098</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="18">
         <v>13</v>
       </c>
       <c r="C18" s="5">
@@ -5831,27 +9321,27 @@
       <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0.328264816829763</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>0.32481404823933602</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="11">
         <v>0.33243060489670101</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>0.32906795543320799</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>2.7100000000000002E-3</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>0.32864435533488801</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
+      <c r="B19" s="19">
         <v>14</v>
       </c>
       <c r="C19" s="5">
@@ -5872,27 +9362,27 @@
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>0.32871102934362101</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>0.32529802051905099</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <v>0.33087571523208298</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>0.32962057816007501</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <v>2.0699999999999998E-3</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>0.32862633510589401</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="18">
         <v>15</v>
       </c>
       <c r="C20" s="5">
@@ -5913,27 +9403,27 @@
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>0.32820989836651898</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>0.32477972396417898</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <v>0.33244433460676298</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>0.32905079323672098</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>0.32862118646903898</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="19">
         <v>16</v>
       </c>
       <c r="C21" s="5">
@@ -5954,27 +9444,27 @@
       <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>0.32968239966225099</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>0.32481061581182002</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>0.33197409203711098</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>0.32793181802579802</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>0.32859973381547403</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="18">
         <v>17</v>
       </c>
       <c r="C22" s="5">
@@ -5995,68 +9485,68 @@
       <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>0.3285600035697</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>0.32458407559578301</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="11">
         <v>0.33218003768805399</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>0.32894438761850497</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <v>0.32856712578205599</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="19">
         <v>18</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="27">
         <v>2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="27">
         <v>53</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="27">
         <v>80</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>0.32800052172540001</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>0.32450512976292201</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>0.33176471395865298</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>0.32989860574315699</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>2.6800000000000001E-3</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <v>0.32854224070392102</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="18">
         <v>19</v>
       </c>
       <c r="C24" s="5">
@@ -6077,27 +9567,27 @@
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>0.32901308089146297</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>0.32467675113870698</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <v>0.33122925526620101</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <v>0.32922928008018099</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>2.3900000000000002E-3</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="12">
         <v>0.32853709206706599</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="19">
         <v>20</v>
       </c>
       <c r="C25" s="5">
@@ -6118,27 +9608,27 @@
       <c r="H25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>0.32827168163766801</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>0.32433694081465198</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <v>0.33149698461242699</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <v>0.32942149668083098</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <v>2.6099999999999999E-3</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="12">
         <v>0.32838177485525799</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+      <c r="B26" s="18">
         <v>21</v>
       </c>
       <c r="C26" s="4">
@@ -6159,27 +9649,27 @@
       <c r="H26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>0.328340329716723</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>0.324350670524715</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="11">
         <v>0.33056679675566902</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <v>0.329781902807048</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <v>2.3900000000000002E-3</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="12">
         <v>0.328259923783012</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="19">
         <v>22</v>
       </c>
       <c r="C27" s="5">
@@ -6188,39 +9678,39 @@
       <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="27">
         <v>45</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="27">
         <v>52</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="27">
         <v>4</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>0.32830257327324303</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>0.32387699552754601</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="11">
         <v>0.33178530852374699</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <v>0.32885171175747702</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="11">
         <v>2.8300000000000001E-3</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="12">
         <v>0.328204146883744</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="18">
         <v>23</v>
       </c>
       <c r="C28" s="5">
@@ -6229,39 +9719,39 @@
       <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="27">
         <v>38</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="27">
         <v>81</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="27">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>0.32790098201077</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>0.32457377831323603</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="11">
         <v>0.33047068878522901</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="11">
         <v>0.32937344253066803</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="11">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="12">
         <v>0.32807972149307002</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
+      <c r="B29" s="19">
         <v>24</v>
       </c>
       <c r="C29" s="5">
@@ -6282,27 +9772,27 @@
       <c r="H29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>0.32889294675311698</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.324168751866382</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="11">
         <v>0.33046725635771301</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <v>0.32876590077504397</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="12">
         <v>0.32807371475007202</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="25">
+      <c r="B30" s="18">
         <v>25</v>
       </c>
       <c r="C30" s="5">
@@ -6323,27 +9813,27 @@
       <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>0.32832316769695902</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>0.32460810258839301</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="11">
         <v>0.331050769035384</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="11">
         <v>0.32756797946028299</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="11">
         <v>2.2899999999999999E-3</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="12">
         <v>0.32788750571713199</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="26">
+      <c r="B31" s="19">
         <v>26</v>
       </c>
       <c r="C31" s="5">
@@ -6364,27 +9854,27 @@
       <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>0.32864924607247098</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>0.323355266545158</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="11">
         <v>0.33063544530598299</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <v>0.32869038711050302</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="11">
         <v>2.7100000000000002E-3</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="12">
         <v>0.32783258692400602</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="25">
+      <c r="B32" s="18">
         <v>27</v>
       </c>
       <c r="C32" s="5">
@@ -6405,27 +9895,27 @@
       <c r="H32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>0.328072602208408</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>0.32341705024044098</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="11">
         <v>0.330920336789787</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <v>0.32802106144752802</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <v>2.6900000000000001E-3</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="12">
         <v>0.32760776311465001</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
+      <c r="B33" s="19">
         <v>28</v>
       </c>
       <c r="C33" s="5">
@@ -6446,27 +9936,27 @@
       <c r="H33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>0.32845359904716398</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>0.32339302324783098</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="11">
         <v>0.330213256721551</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>0.32836773781655598</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="12">
         <v>0.32760690500850798</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="25">
+      <c r="B34" s="18">
         <v>29</v>
       </c>
       <c r="C34" s="4">
@@ -6487,27 +9977,27 @@
       <c r="H34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0.32786322556728997</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>0.32268251075207899</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="11">
         <v>0.33059082374827897</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>0.32885514419677397</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <v>2.9499999999999999E-3</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="12">
         <v>0.32749792552840001</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
+      <c r="B35" s="19">
         <v>30</v>
       </c>
       <c r="C35" s="5">
@@ -6528,27 +10018,27 @@
       <c r="H35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>0.32712525871744702</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>0.32355434734107003</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="11">
         <v>0.33073841813145499</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>0.32738262773822802</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="12">
         <v>0.32720016269692398</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="25">
+      <c r="B36" s="18">
         <v>31</v>
       </c>
       <c r="C36" s="5">
@@ -6569,27 +10059,27 @@
       <c r="H36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>0.32758520084711701</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>0.322806078142644</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="11">
         <v>0.330628580450952</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>0.32768124995709402</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="11">
         <v>2.8E-3</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="12">
         <v>0.32717527761878901</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
+      <c r="B37" s="19">
         <v>32</v>
       </c>
       <c r="C37" s="5">
@@ -6610,27 +10100,27 @@
       <c r="H37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <v>0.32758520084711701</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="11">
         <v>0.32230837615286601</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="11">
         <v>0.33033339168460102</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <v>0.32812060218715</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <v>2.9399999999999999E-3</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="12">
         <v>0.32708689268610303</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="25">
+      <c r="B38" s="18">
         <v>33</v>
       </c>
       <c r="C38" s="5">
@@ -6651,27 +10141,27 @@
       <c r="H38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <v>0.326775153514266</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>0.32368477958666703</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="11">
         <v>0.32947185237815702</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>0.32728651943790299</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <v>2.0699999999999998E-3</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="12">
         <v>0.32680457576519401</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
+      <c r="B39" s="19">
         <v>34</v>
       </c>
       <c r="C39" s="5">
@@ -6692,27 +10182,27 @@
       <c r="H39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <v>0.32640102148341599</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>0.32192394427110599</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="11">
         <v>0.32941693353790602</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="11">
         <v>0.32726592480211902</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="11">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="12">
         <v>0.32625195540937202</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+      <c r="B40" s="20">
         <v>35</v>
       </c>
       <c r="C40" s="9">
@@ -6721,39 +10211,39 @@
       <c r="D40" s="10">
         <v>7</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="28">
         <v>41</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="28">
         <v>15</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="28">
         <v>3</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="13">
         <v>0.32664472216406198</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="13">
         <v>0.32148116112157998</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="13">
         <v>0.32944439295803102</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="13">
         <v>0.326280814723791</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="13">
         <v>2.8600000000000001E-3</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="14">
         <v>0.32596277363932202</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="26">
+      <c r="B41" s="19">
         <v>36</v>
       </c>
       <c r="C41" s="5">
@@ -6774,27 +10264,27 @@
       <c r="H41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <v>0.32612642916719498</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="11">
         <v>0.32234956528305497</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="11">
         <v>0.327515368694201</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <v>0.32634603107044002</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="11">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="12">
         <v>0.32558434883044401</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="25">
+      <c r="B42" s="18">
         <v>37</v>
       </c>
       <c r="C42" s="5">
@@ -6815,27 +10305,27 @@
       <c r="H42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>0.32649026398618802</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <v>0.32180724173557201</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="11">
         <v>0.32711034224734697</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>0.32652451791390003</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>2.14E-3</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="12">
         <v>0.325483092305619</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="26">
+      <c r="B43" s="19">
         <v>38</v>
       </c>
       <c r="C43" s="5">
@@ -6856,27 +10346,27 @@
       <c r="H43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>0.325062383941841</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="11">
         <v>0.320873621451299</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="11">
         <v>0.32917666361180598</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="11">
         <v>0.32553597539627499</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="11">
         <v>2.9399999999999999E-3</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="12">
         <v>0.325162160608294</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="25">
+      <c r="B44" s="18">
         <v>39</v>
       </c>
       <c r="C44" s="5">
@@ -6897,27 +10387,27 @@
       <c r="H44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <v>0.324839277684912</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="11">
         <v>0.32165278249736501</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="11">
         <v>0.32860344821668203</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <v>0.32523735317740898</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="12">
         <v>0.32508321484317598</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="26">
+      <c r="B45" s="19">
         <v>40</v>
       </c>
       <c r="C45" s="5">
@@ -6938,27 +10428,27 @@
       <c r="H45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <v>0.32480495364538398</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <v>0.32225002488509902</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="11">
         <v>0.328459286261022</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="11">
         <v>0.32442729750324301</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="11">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="12">
         <v>0.32498539074292199</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
+      <c r="B46" s="18">
         <v>41</v>
       </c>
       <c r="C46" s="5">
@@ -6979,27 +10469,27 @@
       <c r="H46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>0.32424547180108498</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <v>0.319538407147687</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="11">
         <v>0.32712063952989401</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <v>0.32465727093616298</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="11">
         <v>2.7399999999999998E-3</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="12">
         <v>0.32389044730498801</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="26">
+      <c r="B47" s="19">
         <v>42</v>
       </c>
       <c r="C47" s="5">
@@ -7020,27 +10510,27 @@
       <c r="H47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <v>0.323054427629478</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <v>0.32078781076340601</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="11">
         <v>0.32680485619844901</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="11">
         <v>0.32459891946810898</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="11">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="12">
         <v>0.32381150153987098</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="25">
+      <c r="B48" s="18">
         <v>43</v>
       </c>
       <c r="C48" s="5">
@@ -7061,27 +10551,27 @@
       <c r="H48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <v>0.32367912514887998</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>0.31905786729548702</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="11">
         <v>0.32699707213932899</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <v>0.323757971840268</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="11">
         <v>2.8300000000000001E-3</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="12">
         <v>0.32337300930101198</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="26">
+      <c r="B49" s="19">
         <v>44</v>
       </c>
       <c r="C49" s="5">
@@ -7102,27 +10592,27 @@
       <c r="H49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <v>0.32282102416069097</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>0.31857389501577199</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="11">
         <v>0.325946749319521</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="11">
         <v>0.32273853736896602</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="11">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="12">
         <v>0.32252005179528598</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="25">
+      <c r="B50" s="18">
         <v>45</v>
       </c>
       <c r="C50" s="4">
@@ -7143,27 +10633,27 @@
       <c r="H50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <v>0.32171235768395101</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <v>0.31816543614140202</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="11">
         <v>0.32575110095112503</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="11">
         <v>0.323994810151782</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="11">
         <v>2.8400000000000001E-3</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="12">
         <v>0.32240592367832299</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
+      <c r="B51" s="19">
         <v>46</v>
       </c>
       <c r="C51" s="5">
@@ -7184,27 +10674,27 @@
       <c r="H51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <v>0.32011285744196599</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="11">
         <v>0.31723181585712801</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="11">
         <v>0.323252293719687</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="11">
         <v>0.32161269727944802</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="11">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="12">
         <v>0.32055241441034799</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="25">
+      <c r="B52" s="18">
         <v>47</v>
       </c>
       <c r="C52" s="5">
@@ -7225,27 +10715,27 @@
       <c r="H52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <v>0.32075814938508401</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="11">
         <v>0.315954952821283</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="11">
         <v>0.32343421237802</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <v>0.32050401938641698</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="11">
         <v>2.6900000000000001E-3</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N52" s="12">
         <v>0.32016283422161601</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="26">
+      <c r="B53" s="19">
         <v>48</v>
       </c>
       <c r="C53" s="5">
@@ -7266,27 +10756,27 @@
       <c r="H53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="11">
         <v>0.31924445924191902</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="11">
         <v>0.31725584284973801</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="11">
         <v>0.32237702470318003</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="11">
         <v>0.32023285668192902</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="11">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="12">
         <v>0.31977754456359703</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="25">
+      <c r="B54" s="18">
         <v>49</v>
       </c>
       <c r="C54" s="5">
@@ -7295,39 +10785,39 @@
       <c r="D54" s="3">
         <v>11</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="27">
         <v>63</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="27">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="27">
         <v>3</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <v>0.31965978012020202</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="11">
         <v>0.31729359955241099</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="11">
         <v>0.32153951238934703</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="11">
         <v>0.31953950394387198</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="11">
         <v>1.5E-3</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="12">
         <v>0.31950809923482598</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="26">
+      <c r="B55" s="19">
         <v>50</v>
       </c>
       <c r="C55" s="5">
@@ -7348,27 +10838,27 @@
       <c r="H55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="11">
         <v>0.31947443030675299</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="11">
         <v>0.31632565499297999</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="11">
         <v>0.32206124137173497</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="11">
         <v>0.31928550343587098</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="11">
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="12">
         <v>0.31928670785003999</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="25">
+      <c r="B56" s="18">
         <v>51</v>
       </c>
       <c r="C56" s="5">
@@ -7389,27 +10879,27 @@
       <c r="H56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <v>0.31913462231543099</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <v>0.31549843996169402</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="11">
         <v>0.32019743323070299</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="11">
         <v>0.319484584915115</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="11">
         <v>1.82E-3</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="12">
         <v>0.31857877028241099</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="26">
+      <c r="B57" s="19">
         <v>52</v>
       </c>
       <c r="C57" s="5">
@@ -7430,27 +10920,27 @@
       <c r="H57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <v>0.31868840980157198</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>0.31404652312254699</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="11">
         <v>0.31964481240067399</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <v>0.318935394627546</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="11">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="12">
         <v>0.31782878551379501</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="25">
+      <c r="B58" s="18">
         <v>53</v>
       </c>
       <c r="C58" s="5">
@@ -7471,27 +10961,27 @@
       <c r="H58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <v>0.31456952505826502</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>0.309701069887656</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="11">
         <v>0.31368611823339798</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <v>0.31194694821822</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="11">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="12">
         <v>0.31247591939637298</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="26">
+      <c r="B59" s="19">
         <v>54</v>
       </c>
       <c r="C59" s="5">
@@ -7512,27 +11002,27 @@
       <c r="H59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <v>0.30894381497969697</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>0.30511534672666502</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="11">
         <v>0.31014042060966701</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="11">
         <v>0.30828796792728702</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="11">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N59" s="12">
         <v>0.308121888828916</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
+      <c r="B60" s="18">
         <v>55</v>
       </c>
       <c r="C60" s="5">
@@ -7541,34 +11031,34 @@
       <c r="D60" s="3">
         <v>18</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="28">
         <v>1</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="28">
         <v>57</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="28">
         <v>3</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="13">
         <v>0.30713837050054699</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="13">
         <v>0.303289295288306</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="13">
         <v>0.30806380196266198</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="13">
         <v>0.30746418249593199</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="13">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="14">
         <v>0.30648891283958402</v>
       </c>
     </row>
@@ -7587,1143 +11077,2077 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C000033-E8CD-4559-881C-51D04763E248}">
-  <dimension ref="B2:X60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3927B53E-382D-4FF5-A51D-E6B844562462}">
+  <dimension ref="B2:Z60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="13" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="14" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="P2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H4" s="36" t="s">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="I4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="O4" s="17" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="P5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="19">
-        <f>COUNTIFS(D6:D15,"&gt;50",D6:D15,"&lt;=60")/COUNTIFS(D6:D250,"&gt;50",D6:D250,"&lt;=60")</f>
+      <c r="Q5" s="24">
+        <f>(COUNTIFS($E6:$E10,"&gt;50",$E6:$E10,"&lt;=60")/20)*(COUNTIFS($E6:$E250,"&gt;50",$E6:$E250,"&lt;=60")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="24">
+        <f>(COUNTIFS($E6:$E10,"&gt;60",$E6:$E10,"&lt;=70")/20)*(COUNTIFS($E6:$E250,"&gt;60",$E6:$E250,"&lt;=70")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <f>(COUNTIFS($E6:$E10,"&gt;70",$E6:$E10,"&lt;=80")/20)*(COUNTIFS($E6:$E250,"&gt;70",$E6:$E250,"&lt;=80")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="24">
+        <f>(COUNTIFS($E6:$E10,"&gt;80",$E6:$E10,"&lt;=90")/20)*(COUNTIFS($E6:$E250,"&gt;80",$E6:$E250,"&lt;=90")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="U5" s="24">
+        <f>(COUNTIFS($E6:$E10,"&gt;90",$E6:$E10,"&lt;=100")/20)*(COUNTIFS($E6:$E250,"&gt;90",$E6:$E250,"&lt;=100")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="Q5" s="19">
-        <f>COUNTIFS(D6:D15,"&gt;60",D6:D15,"&lt;=70")/COUNTIFS(D6:D250,"&gt;60",D6:D250,"&lt;=70")</f>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="19">
-        <f>COUNTIFS(D6:D15,"&gt;70",D6:D15,"&lt;=80")/COUNTIFS(D6:D100,"&gt;70",D6:D100,"&lt;=80")</f>
+      <c r="E6" s="27">
+        <v>81</v>
+      </c>
+      <c r="F6" s="27">
+        <v>54</v>
+      </c>
+      <c r="G6" s="27">
+        <v>3</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.32952794148437697</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.32530831780159802</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.333117090399843</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.33023841723359099</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.32954794110302599</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="27">
+        <v>95</v>
+      </c>
+      <c r="F7" s="27">
+        <v>66</v>
+      </c>
+      <c r="G7" s="27">
+        <v>4</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.33004280207728998</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.32534950693178699</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.3326708748228</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.32984368671440001</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2.63E-3</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.32947671829319197</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="27">
+        <v>91</v>
+      </c>
+      <c r="F8" s="27">
+        <v>100</v>
+      </c>
+      <c r="G8" s="27">
+        <v>4</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.32893070319659701</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.32529802051905099</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.33340884673867899</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.33022125503710398</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.32946470480719597</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="24">
+        <f>(COUNTIFS($F6:$F10,"&gt;50",$F6:$F10,"&lt;=60")/20)*(COUNTIFS($F6:$F250,"&gt;50",$F6:$F250,"&lt;=60")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R8" s="24">
+        <f>(COUNTIFS($F6:$F10,"&gt;60",$F6:$F10,"&lt;=70")/20)*(COUNTIFS($F6:$F250,"&gt;60",$F6:$F250,"&lt;=70")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>6.9444444444444449E-3</v>
+      </c>
+      <c r="S8" s="24">
+        <f>(COUNTIFS($F6:$F10,"&gt;70",$F6:$F10,"&lt;=80")/20)*(COUNTIFS($F6:$F250,"&gt;70",$F6:$F250,"&lt;=80")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="24">
+        <f>(COUNTIFS($F6:$F10,"&gt;80",$F6:$F10,"&lt;=90")/20)*(COUNTIFS($F6:$F250,"&gt;80",$F6:$F250,"&lt;=90")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <f>(COUNTIFS($F6:$F10,"&gt;90",$F6:$F10,"&lt;=100")/20)*(COUNTIFS($F6:$F250,"&gt;90",$F6:$F250,"&lt;=100")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14</v>
+      </c>
+      <c r="E9" s="27">
+        <v>98</v>
+      </c>
+      <c r="F9" s="27">
+        <v>93</v>
+      </c>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.32924991676420401</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.32580945221889202</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.33280817192342899</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.329915767939644</v>
+      </c>
+      <c r="M9" s="11">
+        <v>2.49E-3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.329445826472059</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="33">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27">
+        <v>100</v>
+      </c>
+      <c r="F10" s="27">
+        <v>99</v>
+      </c>
+      <c r="G10" s="27">
+        <v>5</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.32916067426143197</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.32531175022911402</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.33249238859198299</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.33060225579910602</v>
+      </c>
+      <c r="M10" s="11">
+        <v>2.64E-3</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.32939176578507701</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>3</v>
+      </c>
+      <c r="R10" s="25">
+        <v>4</v>
+      </c>
+      <c r="S10" s="25">
+        <v>5</v>
+      </c>
+      <c r="T10" s="25">
+        <v>6</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="27">
+        <v>92</v>
+      </c>
+      <c r="F11" s="27">
+        <v>52</v>
+      </c>
+      <c r="G11" s="27">
+        <v>3</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.32959315715947901</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.32533234479420797</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.33219376739811601</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.33043749871283501</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.32938919146664902</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="24">
+        <f>(COUNTIF($G6:$G10,Q10)/20)*(COUNTIF($G6:$G250,Q10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" ref="R11:T11" si="0">(COUNTIF($G6:$G10,R10)/20)*(COUNTIF($G6:$G250,R10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="33">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="S5" s="19">
-        <f>(COUNTIFS(D6:D15,"&gt;80",D6:D15,"&lt;=90")/COUNTIFS(D6:D100,"&gt;80",D6:D100,"&lt;=90"))</f>
+      <c r="E12" s="27">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27">
+        <v>92</v>
+      </c>
+      <c r="G12" s="27">
+        <v>6</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.32948332023299098</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.32493761562990098</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.333062171559592</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.330018741118563</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.32937546176836702</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="19" t="e">
-        <f>(COUNTIFS(D6:D15,"&gt;90",D6:D15,"&lt;=100")/COUNTIFS(D6:D100,"&gt;90",D6:D100,"&lt;=100"))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27">
+        <v>79</v>
+      </c>
+      <c r="F13" s="27">
+        <v>52</v>
+      </c>
+      <c r="G13" s="27">
+        <v>4</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.32918813349305398</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.32530145294656698</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.33307246884213898</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.32973041621758897</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.32932311729366998</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="27">
+        <v>74</v>
+      </c>
+      <c r="F14" s="27">
+        <v>61</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.32940437494207803</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.32573050638603102</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.33211138913773902</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.32988830842526501</v>
+      </c>
+      <c r="M14" s="11">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.32928364441111102</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="24">
+        <f>(COUNTIF($H6:$H10,Q13)/20)*(COUNTIF($H6:$H250,Q13)/(245-COUNTBLANK($H6:$H250)))</f>
+        <v>3.1944444444444442E-2</v>
+      </c>
+      <c r="R14" s="24">
+        <f>(COUNTIF($H6:$H10,R13)/20)*(COUNTIF($H6:$H250,R13)/(245-COUNTBLANK($H6:$H250)))</f>
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="27">
+        <v>84</v>
+      </c>
+      <c r="F15" s="27">
+        <v>76</v>
+      </c>
+      <c r="G15" s="27">
+        <v>4</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.32921559272467599</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.32436096780726198</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.331963794754564</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.331309338294352</v>
+      </c>
+      <c r="M15" s="11">
+        <v>2.98E-3</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.32921242160127701</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27">
+        <v>98</v>
+      </c>
+      <c r="F16" s="27">
+        <v>54</v>
+      </c>
+      <c r="G16" s="27">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.32937005090255</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.32582318192895499</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.332276145658494</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.32935971277347897</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.32920727296442198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>88</v>
+      </c>
+      <c r="F17" s="27">
+        <v>57</v>
+      </c>
+      <c r="G17" s="27">
+        <v>3</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.32893756800450302</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.32507148030301403</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.33249582101949898</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.32998784916488699</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.32912317856244899</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="33">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="27">
+        <v>91</v>
+      </c>
+      <c r="F18" s="27">
+        <v>60</v>
+      </c>
+      <c r="G18" s="27">
+        <v>3</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.32930483522744802</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.32481748066685201</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.33245119946179502</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.329723551338994</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.32907426651232102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="27">
+        <v>64</v>
+      </c>
+      <c r="F19" s="27">
+        <v>76</v>
+      </c>
+      <c r="G19" s="27">
+        <v>5</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.329246484360251</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.32435753537974599</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.33279100978585002</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.32957252400991199</v>
+      </c>
+      <c r="M19" s="11">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.32899188832263399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="33">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27">
+        <v>79</v>
+      </c>
+      <c r="F20" s="27">
+        <v>76</v>
+      </c>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.32842613981554197</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.32524996653383098</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.33259879384497099</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.32968579450672397</v>
+      </c>
+      <c r="M20" s="11">
+        <v>2.64E-3</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0.32899017211034898</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="27">
+        <v>84</v>
+      </c>
+      <c r="F21" s="27">
+        <v>84</v>
+      </c>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.32831973529300701</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.32576826308870399</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.33196036232704801</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.32989860574315699</v>
+      </c>
+      <c r="M21" s="11">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.32898673968577802</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="33">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="27">
+        <v>85</v>
+      </c>
+      <c r="F22" s="27">
+        <v>94</v>
+      </c>
+      <c r="G22" s="27">
+        <v>5</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.32867670530409299</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.324745399689022</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.33234479420880803</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.329902038182454</v>
+      </c>
+      <c r="M22" s="11">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.32891723308822901</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="34">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+      <c r="E23" s="27">
+        <v>80</v>
+      </c>
+      <c r="F23" s="27">
+        <v>63</v>
+      </c>
+      <c r="G23" s="27">
+        <v>6</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.32912978262585701</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.32549710131496201</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.331469525192301</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.32936314521277599</v>
+      </c>
+      <c r="M23" s="11">
+        <v>2.15E-3</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.32886488861353202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="33">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>18</v>
+      </c>
+      <c r="E24" s="27">
+        <v>55</v>
+      </c>
+      <c r="F24" s="27">
+        <v>84</v>
+      </c>
+      <c r="G24" s="27">
+        <v>6</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.32929797041954201</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.32525683138886302</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.331675470843244</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.32917779349072201</v>
+      </c>
+      <c r="M24" s="11">
+        <v>2.3E-3</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.32885201702139299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="27">
+        <v>62</v>
+      </c>
+      <c r="F25" s="27">
+        <v>64</v>
+      </c>
+      <c r="G25" s="27">
+        <v>5</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.32903024291122701</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.32508864244059299</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.331833362508967</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.329442091316615</v>
+      </c>
+      <c r="M25" s="11">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0.32884858459682298</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="33">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8</v>
+      </c>
+      <c r="E26" s="27">
+        <v>66</v>
+      </c>
+      <c r="F26" s="27">
+        <v>54</v>
+      </c>
+      <c r="G26" s="27">
+        <v>3</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.32929797041954201</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.32469048084877</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.33177844366871501</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.32930136130542498</v>
+      </c>
+      <c r="M26" s="11">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.32876706451327697</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="27">
+        <v>66</v>
+      </c>
+      <c r="F27" s="27">
+        <v>52</v>
+      </c>
+      <c r="G27" s="27">
+        <v>4</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.32924305195629799</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.32449483248037497</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.33247179402688898</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.32884484687888199</v>
+      </c>
+      <c r="M27" s="11">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.32876363208870701</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="33">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="27">
+        <v>50</v>
+      </c>
+      <c r="F28" s="27">
+        <v>83</v>
+      </c>
+      <c r="G28" s="27">
+        <v>5</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.33011831496425098</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.32425113012675899</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.33169949783585401</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.328862009075369</v>
+      </c>
+      <c r="M28" s="11">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.32873274026757399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>19</v>
+      </c>
+      <c r="E29" s="27">
+        <v>71</v>
+      </c>
+      <c r="F29" s="27">
+        <v>92</v>
+      </c>
+      <c r="G29" s="27">
+        <v>4</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.32891697358078598</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.32464242686354999</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.33171322754591698</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.32964117279585903</v>
+      </c>
+      <c r="M29" s="11">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.32872844973686099</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="33">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="27">
+        <v>85</v>
+      </c>
+      <c r="F30" s="27">
+        <v>83</v>
+      </c>
+      <c r="G30" s="27">
+        <v>6</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.328807136654298</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.324951345339964</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.33211482156525501</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.32897527957217998</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0.328712145720152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="27">
+        <v>57</v>
+      </c>
+      <c r="F31" s="27">
+        <v>81</v>
+      </c>
+      <c r="G31" s="27">
+        <v>5</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.32871102934362101</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.32529802051905099</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.33087571523208298</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.32962057816007501</v>
+      </c>
+      <c r="M31" s="11">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0.32862633510589401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="33">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+      <c r="E32" s="27">
+        <v>60</v>
+      </c>
+      <c r="F32" s="27">
+        <v>93</v>
+      </c>
+      <c r="G32" s="27">
+        <v>3</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.32820989836651898</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.32477972396417898</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.33244433460676298</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.32905079323672098</v>
+      </c>
+      <c r="M32" s="11">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0.32862118646903898</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7</v>
+      </c>
+      <c r="E33" s="27">
+        <v>73</v>
+      </c>
+      <c r="F33" s="27">
+        <v>99</v>
+      </c>
+      <c r="G33" s="27">
+        <v>6</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.32968239966225099</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.32481061581182002</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.33197409203711098</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.32793181802579802</v>
+      </c>
+      <c r="M33" s="11">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0.32859973381547403</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="33">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3">
+        <v>11</v>
+      </c>
+      <c r="E34" s="27">
+        <v>53</v>
+      </c>
+      <c r="F34" s="27">
+        <v>80</v>
+      </c>
+      <c r="G34" s="27">
+        <v>4</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.32800052172540001</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.32450512976292201</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.33176471395865298</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.32989860574315699</v>
+      </c>
+      <c r="M34" s="11">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0.32854224070392102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="34">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9</v>
+      </c>
+      <c r="E35" s="27">
+        <v>55</v>
+      </c>
+      <c r="F35" s="27">
+        <v>97</v>
+      </c>
+      <c r="G35" s="27">
+        <v>6</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.328755650595007</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.32414815730128799</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.332276145658494</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.328892901029045</v>
+      </c>
+      <c r="M35" s="11">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0.32851821373192902</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="33">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7</v>
+      </c>
+      <c r="E36" s="27">
+        <v>51</v>
+      </c>
+      <c r="F36" s="27">
+        <v>71</v>
+      </c>
+      <c r="G36" s="27">
+        <v>6</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.32823392519418798</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.32394564407786097</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.33202557844984698</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.329352847894885</v>
+      </c>
+      <c r="M36" s="11">
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="N36" s="12">
+        <v>0.328389497810542</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>17</v>
+      </c>
+      <c r="E37" s="27">
         <v>79</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F37" s="27">
+        <v>62</v>
+      </c>
+      <c r="G37" s="27">
+        <v>6</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.328707596939668</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.32400742777314401</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.33181963279890397</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.32897184713288302</v>
+      </c>
+      <c r="M37" s="11">
+        <v>2.8E-3</v>
+      </c>
+      <c r="N37" s="12">
+        <v>0.32837662621840302</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="33">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="27">
+        <v>63</v>
+      </c>
+      <c r="F38" s="27">
+        <v>78</v>
+      </c>
+      <c r="G38" s="27">
+        <v>6</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.32791471162658098</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.32481404823933602</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0.33101644476022701</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.32892379298272101</v>
+      </c>
+      <c r="M38" s="11">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0.32816724831961303</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+      <c r="E39" s="27">
         <v>52</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F39" s="27">
+        <v>90</v>
+      </c>
+      <c r="G39" s="27">
+        <v>6</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.32805200778469201</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.32591242504436402</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.32970182502171003</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.32893752273991</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1.42E-3</v>
+      </c>
+      <c r="N39" s="12">
+        <v>0.32815094430290398</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="33">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6</v>
+      </c>
+      <c r="E40" s="27">
+        <v>60</v>
+      </c>
+      <c r="F40" s="27">
+        <v>50</v>
+      </c>
+      <c r="G40" s="27">
+        <v>6</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.32778084787242401</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.324663021428645</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0.33096495834749201</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.328892901029045</v>
+      </c>
+      <c r="M40" s="11">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0.32807543096235697</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="34">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>15</v>
+      </c>
+      <c r="E41" s="27">
+        <v>54</v>
+      </c>
+      <c r="F41" s="27">
+        <v>57</v>
+      </c>
+      <c r="G41" s="27">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H41" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="23">
-        <v>0.32918813349305398</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.32530145294656698</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0.33307246884213898</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0.32973041621758897</v>
-      </c>
-      <c r="L6" s="23">
-        <v>2.7599999999999999E-3</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0.32932311729366998</v>
-      </c>
-      <c r="O6" s="20"/>
+      <c r="I41" s="11">
+        <v>0.32812408826770001</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0.32440902179248199</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.33149698461242699</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.32769497971428302</v>
+      </c>
+      <c r="M41" s="11">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0.32793126913040299</v>
+      </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>88</v>
-      </c>
-      <c r="E7" s="1">
-        <v>57</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.32893756800450302</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.32507148030301403</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.33249582101949898</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0.32998784916488699</v>
-      </c>
-      <c r="L7" s="23">
-        <v>2.6700000000000001E-3</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0.32912317856244899</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.32924305195629799</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.32449483248037497</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0.33247179402688898</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0.32884484687888199</v>
-      </c>
-      <c r="L8" s="23">
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0.32876363208870701</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="11">
-        <f>COUNTIFS(E6:E15,"&gt;50",E6:E15,"&lt;=60")/COUNTIFS(E6:E250,"&gt;50",E6:E250,"&lt;=60")</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11" t="e">
-        <f>COUNTIFS(E6:E15,"&gt;60",E6:E15,"&lt;=70")/COUNTIFS(E6:E250,"&gt;60",E6:E250,"&lt;=70")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="11">
-        <f>COUNTIFS(E6:E15,"&gt;70",E6:E15,"&lt;=80")/COUNTIFS(E6:E250,"&gt;70",E6:E250,"&lt;=80")</f>
-        <v>1</v>
-      </c>
-      <c r="S8" s="11">
-        <f>COUNTIFS(E6:E15,"&gt;80",E6:E15,"&lt;=90")/COUNTIFS(E6:E250,"&gt;80",E6:E250,"&lt;=90")</f>
-        <v>1</v>
-      </c>
-      <c r="T8" s="11" t="e">
-        <f>COUNTIFS(E6:E15,"&gt;90",E6:E15,"&lt;=100")/COUNTIFS(E6:E250,"&gt;90",E6:E250,"&lt;=100")</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>63</v>
-      </c>
-      <c r="E9" s="1">
-        <v>78</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.32791471162658098</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.32481404823933602</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0.33101644476022701</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.32892379298272101</v>
-      </c>
-      <c r="L9" s="23">
-        <v>2.2399999999999998E-3</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0.32816724831961303</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.32805200778469201</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.32591242504436402</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.32970182502171003</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.32893752273991</v>
-      </c>
-      <c r="L10" s="23">
-        <v>1.42E-3</v>
-      </c>
-      <c r="M10" s="24">
-        <v>0.32815094430290398</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>4</v>
-      </c>
-      <c r="R10" s="1">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1">
-        <v>6</v>
-      </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="12"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="O11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="11">
-        <f>COUNTIF($F6:$F15,P10)/COUNTIF($F6:$F250,P10)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="11">
-        <f>COUNTIF($F6:$F15,Q10)/COUNTIF($F6:$F250,Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="11" t="e">
-        <f>COUNTIF($F6:$F15,R10)/COUNTIF($F6:$F250,R10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="11">
-        <f>COUNTIF($F6:$F15,S10)/COUNTIF($F6:$F250,S10)</f>
-        <v>1</v>
-      </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="21"/>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="12"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="12"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="12"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="12"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="12"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="12"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="12"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="12"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="12"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="13"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="13"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="13"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="13"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="13"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="13"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="13"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="13"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="16"/>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="I4:N4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B2E24-EF76-4875-A0B6-6FBA0966D607}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717138BF-183C-4285-A7D4-4A9426B20256}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
     <sheet name="Random Forest - Experiment  3b" sheetId="3" r:id="rId2"/>
+    <sheet name="Random Forest - Experiment 3c" sheetId="4" r:id="rId3"/>
+    <sheet name="Random Forest - Experiment 3d" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="37">
   <si>
     <t>Run</t>
   </si>
@@ -135,6 +137,9 @@
   <si>
     <t>Experiment 3a</t>
   </si>
+  <si>
+    <t>3 to 4</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +150,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +181,112 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +305,181 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -346,12 +628,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -422,9 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,12 +860,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="51">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -689,6 +1168,270 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1306,6 +2049,620 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment 3c'!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min_samples_leaf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment 3c'!$Q$7:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment 3c'!$Q$8:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD9-4D4E-8625-A4ADC4E17E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445915808"/>
+        <c:axId val="455287040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445915808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455287040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455287040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445915808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment 3c'!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max_features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment 3c'!$Q$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment 3c'!$Q$11:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7654-4242-9AE9-8AFE807A598F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="286964192"/>
+        <c:axId val="286962552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="286964192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286962552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286962552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286964192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2355,10 +3712,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333332E-3</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>0.17777777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,10 +4003,10 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444449E-3</c:v>
+                  <c:v>2.777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2658,7 +4015,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7499999999999999E-2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,13 +4301,13 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.777777777777778E-2</c:v>
+                  <c:v>0.11111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333332E-3</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3232,10 +4589,10 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.1944444444444442E-2</c:v>
+                  <c:v>0.12777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2222222222222229E-2</c:v>
+                  <c:v>0.28888888888888892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +4775,418 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest - Experiment 3c'!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment 3c'!$Q$4:$Z$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest - Experiment 3c'!$Q$5:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA00-4005-8DEF-B9BD23D81EA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445915808"/>
+        <c:axId val="455287040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445915808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455287040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455287040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445915808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3738,6 +5506,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4241,7 +6049,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4744,7 +6552,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5247,7 +7055,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5750,7 +7558,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6253,7 +8061,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6756,7 +8564,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7259,7 +9067,1516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8070,49 +11387,192 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F715CF-E148-4840-B5E1-253175E9B62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C75F5B-D09E-41DD-82E2-BC03476AA408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF992D-656C-4146-87C5-D997E52B9BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="35" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="34" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="17" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
+  <sortState ref="C6:N60">
+    <sortCondition descending="1" ref="N5:N60"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8417,8 +11877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91BBA52-B91B-4F5E-B7BC-4C07D43FF9FB}">
   <dimension ref="B2:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8446,12 +11906,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -8471,14 +11931,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -11080,8 +14540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3927B53E-382D-4FF5-A51D-E6B844562462}">
   <dimension ref="B2:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11110,12 +14570,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -11135,14 +14595,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -11206,28 +14666,28 @@
         <v>19</v>
       </c>
       <c r="Q5" s="24">
-        <f>(COUNTIFS($E6:$E10,"&gt;50",$E6:$E10,"&lt;=60")/20)*(COUNTIFS($E6:$E250,"&gt;50",$E6:$E250,"&lt;=60")/(245-COUNTBLANK($E6:$E250)))</f>
+        <f>(COUNTIFS($E6:$E10,"&gt;50",$E6:$E10,"&lt;=60")/5)*(COUNTIFS($E6:$E250,"&gt;50",$E6:$E250,"&lt;=60")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
       <c r="R5" s="24">
-        <f>(COUNTIFS($E6:$E10,"&gt;60",$E6:$E10,"&lt;=70")/20)*(COUNTIFS($E6:$E250,"&gt;60",$E6:$E250,"&lt;=70")/(245-COUNTBLANK($E6:$E250)))</f>
+        <f>(COUNTIFS($E6:$E10,"&gt;60",$E6:$E10,"&lt;=70")/5)*(COUNTIFS($E6:$E250,"&gt;60",$E6:$E250,"&lt;=70")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
       <c r="S5" s="24">
-        <f>(COUNTIFS($E6:$E10,"&gt;70",$E6:$E10,"&lt;=80")/20)*(COUNTIFS($E6:$E250,"&gt;70",$E6:$E250,"&lt;=80")/(245-COUNTBLANK($E6:$E250)))</f>
+        <f>(COUNTIFS($E6:$E10,"&gt;70",$E6:$E10,"&lt;=80")/5)*(COUNTIFS($E6:$E250,"&gt;70",$E6:$E250,"&lt;=80")/(245-COUNTBLANK($E6:$E250)))</f>
         <v>0</v>
       </c>
       <c r="T5" s="24">
-        <f>(COUNTIFS($E6:$E10,"&gt;80",$E6:$E10,"&lt;=90")/20)*(COUNTIFS($E6:$E250,"&gt;80",$E6:$E250,"&lt;=90")/(245-COUNTBLANK($E6:$E250)))</f>
-        <v>8.3333333333333332E-3</v>
+        <f>(COUNTIFS($E6:$E10,"&gt;80",$E6:$E10,"&lt;=90")/5)*(COUNTIFS($E6:$E250,"&gt;80",$E6:$E250,"&lt;=90")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="U5" s="24">
-        <f>(COUNTIFS($E6:$E10,"&gt;90",$E6:$E10,"&lt;=100")/20)*(COUNTIFS($E6:$E250,"&gt;90",$E6:$E250,"&lt;=100")/(245-COUNTBLANK($E6:$E250)))</f>
-        <v>4.4444444444444446E-2</v>
+        <f>(COUNTIFS($E6:$E10,"&gt;90",$E6:$E10,"&lt;=100")/5)*(COUNTIFS($E6:$E250,"&gt;90",$E6:$E250,"&lt;=100")/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6" s="5">
@@ -11279,7 +14739,7 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="5">
@@ -11338,7 +14798,7 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>3</v>
       </c>
       <c r="C8" s="5">
@@ -11381,28 +14841,28 @@
         <v>19</v>
       </c>
       <c r="Q8" s="24">
-        <f>(COUNTIFS($F6:$F10,"&gt;50",$F6:$F10,"&lt;=60")/20)*(COUNTIFS($F6:$F250,"&gt;50",$F6:$F250,"&lt;=60")/(245-COUNTBLANK($F6:$F250)))</f>
-        <v>1.2500000000000001E-2</v>
+        <f>(COUNTIFS($F6:$F10,"&gt;50",$F6:$F10,"&lt;=60")/5)*(COUNTIFS($F6:$F250,"&gt;50",$F6:$F250,"&lt;=60")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>0.05</v>
       </c>
       <c r="R8" s="24">
-        <f>(COUNTIFS($F6:$F10,"&gt;60",$F6:$F10,"&lt;=70")/20)*(COUNTIFS($F6:$F250,"&gt;60",$F6:$F250,"&lt;=70")/(245-COUNTBLANK($F6:$F250)))</f>
-        <v>6.9444444444444449E-3</v>
+        <f>(COUNTIFS($F6:$F10,"&gt;60",$F6:$F10,"&lt;=70")/5)*(COUNTIFS($F6:$F250,"&gt;60",$F6:$F250,"&lt;=70")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="S8" s="24">
-        <f>(COUNTIFS($F6:$F10,"&gt;70",$F6:$F10,"&lt;=80")/20)*(COUNTIFS($F6:$F250,"&gt;70",$F6:$F250,"&lt;=80")/(245-COUNTBLANK($F6:$F250)))</f>
+        <f>(COUNTIFS($F6:$F10,"&gt;70",$F6:$F10,"&lt;=80")/5)*(COUNTIFS($F6:$F250,"&gt;70",$F6:$F250,"&lt;=80")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
       <c r="T8" s="24">
-        <f>(COUNTIFS($F6:$F10,"&gt;80",$F6:$F10,"&lt;=90")/20)*(COUNTIFS($F6:$F250,"&gt;80",$F6:$F250,"&lt;=90")/(245-COUNTBLANK($F6:$F250)))</f>
+        <f>(COUNTIFS($F6:$F10,"&gt;80",$F6:$F10,"&lt;=90")/5)*(COUNTIFS($F6:$F250,"&gt;80",$F6:$F250,"&lt;=90")/(245-COUNTBLANK($F6:$F250)))</f>
         <v>0</v>
       </c>
       <c r="U8" s="24">
-        <f>(COUNTIFS($F6:$F10,"&gt;90",$F6:$F10,"&lt;=100")/20)*(COUNTIFS($F6:$F250,"&gt;90",$F6:$F250,"&lt;=100")/(245-COUNTBLANK($F6:$F250)))</f>
-        <v>3.7499999999999999E-2</v>
+        <f>(COUNTIFS($F6:$F10,"&gt;90",$F6:$F10,"&lt;=100")/5)*(COUNTIFS($F6:$F250,"&gt;90",$F6:$F250,"&lt;=100")/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="5">
@@ -11454,7 +14914,7 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>5</v>
       </c>
       <c r="C10" s="5">
@@ -11508,13 +14968,13 @@
       <c r="T10" s="25">
         <v>6</v>
       </c>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>6</v>
       </c>
       <c r="C11" s="5">
@@ -11557,28 +15017,28 @@
         <v>19</v>
       </c>
       <c r="Q11" s="24">
-        <f>(COUNTIF($G6:$G10,Q10)/20)*(COUNTIF($G6:$G250,Q10)/(245-COUNTBLANK($G6:$G250)))</f>
-        <v>2.777777777777778E-2</v>
+        <f>(COUNTIF($G6:$G10,Q10)/5)*(COUNTIF($G6:$G250,Q10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>0.11111111111111112</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" ref="R11:T11" si="0">(COUNTIF($G6:$G10,R10)/20)*(COUNTIF($G6:$G250,R10)/(245-COUNTBLANK($G6:$G250)))</f>
-        <v>2.5000000000000001E-2</v>
+        <f>(COUNTIF($G6:$G10,R10)/5)*(COUNTIF($G6:$G250,R10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>0.1</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333332E-3</v>
+        <f>(COUNTIF($G6:$G10,S10)/5)*(COUNTIF($G6:$G250,S10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="T11" s="24">
-        <f t="shared" si="0"/>
+        <f>(COUNTIF($G6:$G10,T10)/5)*(COUNTIF($G6:$G250,T10)/(245-COUNTBLANK($G6:$G250)))</f>
         <v>0</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -11629,7 +15089,7 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>8</v>
       </c>
       <c r="C13" s="5">
@@ -11687,7 +15147,7 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>9</v>
       </c>
       <c r="C14" s="5">
@@ -11730,12 +15190,12 @@
         <v>19</v>
       </c>
       <c r="Q14" s="24">
-        <f>(COUNTIF($H6:$H10,Q13)/20)*(COUNTIF($H6:$H250,Q13)/(245-COUNTBLANK($H6:$H250)))</f>
-        <v>3.1944444444444442E-2</v>
+        <f>(COUNTIF($H6:$H10,Q13)/5)*(COUNTIF($H6:$H250,Q13)/(245-COUNTBLANK($H6:$H250)))</f>
+        <v>0.12777777777777777</v>
       </c>
       <c r="R14" s="24">
-        <f>(COUNTIF($H6:$H10,R13)/20)*(COUNTIF($H6:$H250,R13)/(245-COUNTBLANK($H6:$H250)))</f>
-        <v>7.2222222222222229E-2</v>
+        <f>(COUNTIF($H6:$H10,R13)/5)*(COUNTIF($H6:$H250,R13)/(245-COUNTBLANK($H6:$H250)))</f>
+        <v>0.28888888888888892</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -11747,7 +15207,7 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -11788,7 +15248,7 @@
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -11829,7 +15289,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>12</v>
       </c>
       <c r="C17" s="5">
@@ -11870,7 +15330,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>13</v>
       </c>
       <c r="C18" s="5">
@@ -11911,7 +15371,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>14</v>
       </c>
       <c r="C19" s="5">
@@ -11952,7 +15412,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -11993,7 +15453,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>16</v>
       </c>
       <c r="C21" s="5">
@@ -12034,7 +15494,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -12075,7 +15535,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>18</v>
       </c>
       <c r="C23" s="5">
@@ -12116,7 +15576,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>19</v>
       </c>
       <c r="C24" s="5">
@@ -12157,7 +15617,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <v>20</v>
       </c>
       <c r="C25" s="5">
@@ -12198,7 +15658,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -12239,7 +15699,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
+      <c r="B27" s="33">
         <v>22</v>
       </c>
       <c r="C27" s="5">
@@ -12280,7 +15740,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>23</v>
       </c>
       <c r="C28" s="5">
@@ -12321,7 +15781,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
+      <c r="B29" s="33">
         <v>24</v>
       </c>
       <c r="C29" s="5">
@@ -12362,7 +15822,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -12403,7 +15863,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <v>26</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -12444,7 +15904,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -12485,7 +15945,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -12526,7 +15986,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -12567,7 +16027,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
+      <c r="B35" s="33">
         <v>30</v>
       </c>
       <c r="C35" s="5">
@@ -12608,7 +16068,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>31</v>
       </c>
       <c r="C36" s="5">
@@ -12649,7 +16109,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+      <c r="B37" s="33">
         <v>32</v>
       </c>
       <c r="C37" s="5">
@@ -12690,7 +16150,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>33</v>
       </c>
       <c r="C38" s="5">
@@ -12731,7 +16191,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="34">
+      <c r="B39" s="33">
         <v>34</v>
       </c>
       <c r="C39" s="5">
@@ -12772,7 +16232,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <v>35</v>
       </c>
       <c r="C40" s="5">
@@ -12813,7 +16273,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="34">
+      <c r="B41" s="33">
         <v>36</v>
       </c>
       <c r="C41" s="5">
@@ -13150,4 +16610,1506 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17645CFA-2E15-49BF-ABF6-F637A36F4525}">
+  <dimension ref="B2:Z60"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="14" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="I4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="P4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>91</v>
+      </c>
+      <c r="R4" s="1">
+        <v>92</v>
+      </c>
+      <c r="S4" s="1">
+        <v>93</v>
+      </c>
+      <c r="T4" s="1">
+        <v>94</v>
+      </c>
+      <c r="U4" s="1">
+        <v>95</v>
+      </c>
+      <c r="V4" s="37">
+        <v>96</v>
+      </c>
+      <c r="W4" s="37">
+        <v>97</v>
+      </c>
+      <c r="X4" s="37">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="24">
+        <f>(COUNTIF($E6:$E8,Q4)/3)*(COUNTIF($E6:$E250,Q4)/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="24">
+        <f t="shared" ref="R5:Z5" si="0">(COUNTIF($E6:$E8,R4)/3)*(COUNTIF($E6:$E250,R4)/(245-COUNTBLANK($E6:$E250)))</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="V5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="X5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="38">
+        <v>0.32940780734602998</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.326156127397979</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0.33313425253742202</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0.330732688492404</v>
+      </c>
+      <c r="M6" s="38">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0.32985771742049802</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="33">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.32932199724721201</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.32601883029735101</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0.333244090217924</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0.33073955337099797</v>
+      </c>
+      <c r="M7" s="38">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="N7" s="38">
+        <v>0.32983111613007798</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>91</v>
+      </c>
+      <c r="R7" s="1">
+        <v>92</v>
+      </c>
+      <c r="S7" s="1">
+        <v>93</v>
+      </c>
+      <c r="T7" s="1">
+        <v>94</v>
+      </c>
+      <c r="U7" s="1">
+        <v>95</v>
+      </c>
+      <c r="V7" s="37">
+        <v>96</v>
+      </c>
+      <c r="W7" s="37">
+        <v>97</v>
+      </c>
+      <c r="X7" s="37">
+        <v>98</v>
+      </c>
+      <c r="Y7" s="37">
+        <v>99</v>
+      </c>
+      <c r="Z7" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.32948675263694399</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.32576826308870399</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0.33303127971195001</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0.330732688492404</v>
+      </c>
+      <c r="M8" s="38">
+        <v>2.63E-3</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0.329754744683388</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="24">
+        <f>(COUNTIF($F6:$F8,Q7)/3)*(COUNTIF($F6:$F250,Q7)/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" ref="R8:Z8" si="1">(COUNTIF($F6:$F8,R7)/3)*(COUNTIF($F6:$F250,R7)/(245-COUNTBLANK($F6:$F250)))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="33">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.32941123974998299</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.32603942486244503</v>
+      </c>
+      <c r="K9" s="38">
+        <v>0.33325781992798698</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0.33002560599715702</v>
+      </c>
+      <c r="M9" s="38">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0.32968352187355399</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="32">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1">
+        <v>90</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.329929532746849</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.32530831780159802</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0.33270176667044199</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0.33019379552272599</v>
+      </c>
+      <c r="M10" s="38">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.32953335329860201</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>3</v>
+      </c>
+      <c r="R10" s="25">
+        <v>4</v>
+      </c>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="33">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.33000847803776301</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.32567215511826397</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.33270863152547298</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0.32937001009137101</v>
+      </c>
+      <c r="M11" s="38">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0.329439819729061</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="24">
+        <f>(COUNTIF($G6:$G8,Q10)/3)*(COUNTIF($G6:$G250,Q10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>0.6</v>
+      </c>
+      <c r="R11" s="24">
+        <f>(COUNTIF($G6:$G8,R10)/3)*(COUNTIF($G6:$G250,R10)/(245-COUNTBLANK($G6:$G250)))</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="32">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1">
+        <v>93</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.32911948541399899</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.32574423609609399</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0.33255760471478202</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0.329781902807048</v>
+      </c>
+      <c r="M12" s="38">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.32930080653396299</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="33">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.32911605301004598</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.32515385856339102</v>
+      </c>
+      <c r="K13" s="38">
+        <v>0.33256103714229801</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.32989174086456202</v>
+      </c>
+      <c r="M13" s="38">
+        <v>2.65E-3</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0.329180671674002</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="32">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1">
+        <v>92</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.32853254433807799</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.32567558754578002</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0.33212855127531798</v>
+      </c>
+      <c r="L14" s="38">
+        <v>0.32980249744283202</v>
+      </c>
+      <c r="M14" s="38">
+        <v>2.33E-3</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0.32903479362976301</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="33">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.328292276061385</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.32566185783571699</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0.332437469751732</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0.32963087547796699</v>
+      </c>
+      <c r="M15" s="38">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0.32900561802091499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="32">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="32">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="33">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="33">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="32">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="33">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="32">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="33">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="32">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="33">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="32">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="33">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="32">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="33">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="32">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="33">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="33">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="32">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="33">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="32">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="33">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="32">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="33">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="I4:N4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02D239E-720A-466C-9858-2239CE9DC3FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717138BF-183C-4285-A7D4-4A9426B20256}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE342972-E1CF-4636-ABE7-1C9D0C23C345}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="4" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
     <sheet name="Random Forest - Experiment  3b" sheetId="3" r:id="rId2"/>
     <sheet name="Random Forest - Experiment 3c" sheetId="4" r:id="rId3"/>
-    <sheet name="Random Forest - Experiment 3d" sheetId="5" r:id="rId4"/>
+    <sheet name="Random Forest - Experiment 3d" sheetId="6" r:id="rId4"/>
+    <sheet name="Feature Importance" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="60">
   <si>
     <t>Run</t>
   </si>
@@ -139,6 +141,75 @@
   </si>
   <si>
     <t>3 to 4</t>
+  </si>
+  <si>
+    <t>95 to 100</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>adjClosePChange</t>
+  </si>
+  <si>
+    <t>pDiffClose5SMA</t>
+  </si>
+  <si>
+    <t>pDiffClose8SMA</t>
+  </si>
+  <si>
+    <t>pDiffClose13SMA</t>
+  </si>
+  <si>
+    <t>rsi</t>
+  </si>
+  <si>
+    <t>pDiffCloseUpperBB</t>
+  </si>
+  <si>
+    <t>pDiffCloseLowerBB</t>
+  </si>
+  <si>
+    <t>pDiff20SMAAbsBB</t>
+  </si>
+  <si>
+    <t>pDiff5SMA8SMA</t>
+  </si>
+  <si>
+    <t>pDiff5SMA13SMA</t>
+  </si>
+  <si>
+    <t>pDiff8SMA13SMA</t>
+  </si>
+  <si>
+    <t>macdHist</t>
+  </si>
+  <si>
+    <t>deltaMacdHist</t>
+  </si>
+  <si>
+    <t>stochPK</t>
+  </si>
+  <si>
+    <t>stochPD</t>
+  </si>
+  <si>
+    <t>adx</t>
+  </si>
+  <si>
+    <t>pDiffPdiNdi</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -781,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -863,14 +934,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -917,15 +1015,114 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="74">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -941,9 +1138,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1025,6 +1220,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1093,38 +1289,11 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1141,13 +1310,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1168,6 +1330,277 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -11507,72 +11940,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="36" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="35" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="62" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="61" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="60" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="59" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="58" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="57" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="44" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="42" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="40" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="23" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="C5:L60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
+  <sortState ref="C6:L60">
+    <sortCondition descending="1" ref="L5:L60"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="8" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:F22" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="C5:F22" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
+  <sortState ref="C6:F22">
+    <sortCondition descending="1" ref="E5:E22"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{8C2FD26F-A554-4427-841A-E31067F65BB6}" name="Period" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11906,12 +12377,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -11931,14 +12402,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -14541,7 +15012,7 @@
   <dimension ref="B2:Z60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14570,12 +15041,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -14595,14 +15066,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -16616,8 +17087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17645CFA-2E15-49BF-ABF6-F637A36F4525}">
   <dimension ref="B2:Z60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16646,12 +17117,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -16671,14 +17142,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -16697,19 +17168,19 @@
       <c r="U4" s="1">
         <v>95</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="36">
         <v>96</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="36">
         <v>97</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="36">
         <v>98</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="36">
         <v>99</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="36">
         <v>100</v>
       </c>
     </row>
@@ -16807,34 +17278,34 @@
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="34">
         <v>99</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="34">
         <v>96</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="34">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="11">
         <v>0.32940780734602998</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="11">
         <v>0.326156127397979</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="11">
         <v>0.33313425253742202</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="11">
         <v>0.330732688492404</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="11">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="11">
         <v>0.32985771742049802</v>
       </c>
       <c r="P6" s="17"/>
@@ -16859,34 +17330,34 @@
       <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="34">
         <v>97</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="34">
         <v>96</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="34">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="11">
         <v>0.32932199724721201</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="11">
         <v>0.32601883029735101</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="11">
         <v>0.333244090217924</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="11">
         <v>0.33073955337099797</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="11">
         <v>2.6099999999999999E-3</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="11">
         <v>0.32983111613007798</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -16907,19 +17378,19 @@
       <c r="U7" s="1">
         <v>95</v>
       </c>
-      <c r="V7" s="37">
+      <c r="V7" s="36">
         <v>96</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="36">
         <v>97</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="36">
         <v>98</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="36">
         <v>99</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="36">
         <v>100</v>
       </c>
     </row>
@@ -16933,34 +17404,34 @@
       <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="34">
         <v>95</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="34">
         <v>96</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="34">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="11">
         <v>0.32948675263694399</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="11">
         <v>0.32576826308870399</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="11">
         <v>0.33303127971195001</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="11">
         <v>0.330732688492404</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="11">
         <v>2.63E-3</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="11">
         <v>0.329754744683388</v>
       </c>
       <c r="P8" s="15" t="s">
@@ -17017,34 +17488,34 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="34">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="34">
         <v>96</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="34">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="11">
         <v>0.32941123974998299</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="11">
         <v>0.32603942486244503</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="11">
         <v>0.33325781992798698</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="11">
         <v>0.33002560599715702</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="11">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="11">
         <v>0.32968352187355399</v>
       </c>
       <c r="P9" s="17"/>
@@ -17069,34 +17540,34 @@
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="34">
         <v>91</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="34">
         <v>90</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="34">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="11">
         <v>0.329929532746849</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="11">
         <v>0.32530831780159802</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="11">
         <v>0.33270176667044199</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="11">
         <v>0.33019379552272599</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="11">
         <v>2.6700000000000001E-3</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="11">
         <v>0.32953335329860201</v>
       </c>
       <c r="P10" s="15" t="s">
@@ -17123,34 +17594,34 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="34">
         <v>99</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="34">
         <v>3</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="11">
         <v>0.33000847803776301</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="11">
         <v>0.32567215511826397</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="11">
         <v>0.33270863152547298</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="11">
         <v>0.32937001009137101</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="11">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="11">
         <v>0.329439819729061</v>
       </c>
       <c r="P11" s="15" t="s">
@@ -17179,34 +17650,34 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="34">
         <v>94</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="34">
         <v>93</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>3</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="11">
         <v>0.32911948541399899</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="11">
         <v>0.32574423609609399</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="11">
         <v>0.33255760471478202</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="11">
         <v>0.329781902807048</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="11">
         <v>2.4199999999999998E-3</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="11">
         <v>0.32930080653396299</v>
       </c>
       <c r="Q12" s="22"/>
@@ -17230,34 +17701,34 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="34">
         <v>90</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="34">
         <v>100</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="34">
         <v>3</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="11">
         <v>0.32911605301004598</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="11">
         <v>0.32515385856339102</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="11">
         <v>0.33256103714229801</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="11">
         <v>0.32989174086456202</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="11">
         <v>2.65E-3</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="11">
         <v>0.329180671674002</v>
       </c>
       <c r="P13" s="22"/>
@@ -17279,34 +17750,34 @@
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="34">
         <v>96</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="34">
         <v>92</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="34">
         <v>4</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="11">
         <v>0.32853254433807799</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="11">
         <v>0.32567558754578002</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="11">
         <v>0.33212855127531798</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="11">
         <v>0.32980249744283202</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="11">
         <v>2.33E-3</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="11">
         <v>0.32903479362976301</v>
       </c>
       <c r="P14" s="22"/>
@@ -17328,34 +17799,34 @@
       <c r="D15" s="3">
         <v>9</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="34">
         <v>100</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="34">
         <v>92</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="34">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="11">
         <v>0.328292276061385</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="11">
         <v>0.32566185783571699</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="11">
         <v>0.332437469751732</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="11">
         <v>0.32963087547796699</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="11">
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="11">
         <v>0.32900561802091499</v>
       </c>
     </row>
@@ -18101,15 +18572,2109 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02D239E-720A-466C-9858-2239CE9DC3FC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F73C35B-F41C-4D5B-86FA-A17032C226CB}">
+  <dimension ref="B2:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="12" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G4" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>100</v>
+      </c>
+      <c r="D6" s="34">
+        <v>98</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.33028650275793597</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.32648907286700302</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.33325438750047198</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.32988830842526501</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.32997956849274501</v>
+      </c>
+      <c r="N6" s="38"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="33">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>99</v>
+      </c>
+      <c r="D7" s="34">
+        <v>98</v>
+      </c>
+      <c r="E7" s="34">
+        <v>3</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.330053099289149</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.32643758645426801</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.33348436014402399</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.32980936232142699</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2.49E-3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.329946102353184</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="34">
+        <v>98</v>
+      </c>
+      <c r="D8" s="34">
+        <v>96</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.32931513243930599</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.32605658700002399</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.33321663079779901</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.33094549972883702</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.32988346060477602</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="33">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34">
+        <v>99</v>
+      </c>
+      <c r="D9" s="34">
+        <v>96</v>
+      </c>
+      <c r="E9" s="34">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.32940780734602998</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.326156127397979</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.33313425253742202</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.330732688492404</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.32985771742049802</v>
+      </c>
+      <c r="N9" s="38"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="32">
+        <v>5</v>
+      </c>
+      <c r="C10" s="34">
+        <v>97</v>
+      </c>
+      <c r="D10" s="34">
+        <v>96</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.32932199724721201</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.32601883029735101</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.333244090217924</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.33073955337099797</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.32983111613007798</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="33">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34">
+        <v>97</v>
+      </c>
+      <c r="D11" s="34">
+        <v>98</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.33000504563381</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.326128667977854</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.33329557663066001</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.32989174086456202</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.32983025802393601</v>
+      </c>
+      <c r="N11" s="38"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="32">
+        <v>7</v>
+      </c>
+      <c r="C12" s="34">
+        <v>95</v>
+      </c>
+      <c r="D12" s="34">
+        <v>98</v>
+      </c>
+      <c r="E12" s="34">
+        <v>3</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.32989864111127498</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.32606688428257102</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.333532414129244</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.32979906500353501</v>
+      </c>
+      <c r="K12" s="11">
+        <v>2.64E-3</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.32982425128093701</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="33">
+        <v>8</v>
+      </c>
+      <c r="C13" s="34">
+        <v>96</v>
+      </c>
+      <c r="D13" s="34">
+        <v>96</v>
+      </c>
+      <c r="E13" s="34">
+        <v>3</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.32947302302113302</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.32579915493634498</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.333141117392453</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.33077044532467398</v>
+      </c>
+      <c r="K13" s="11">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.32979593377823202</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="32">
+        <v>9</v>
+      </c>
+      <c r="C14" s="34">
+        <v>99</v>
+      </c>
+      <c r="D14" s="34">
+        <v>95</v>
+      </c>
+      <c r="E14" s="34">
+        <v>3</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.32951764427251901</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.32622477594829302</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.33319946866021999</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.33010455210099598</v>
+      </c>
+      <c r="K14" s="11">
+        <v>2.48E-3</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.32976160953252898</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="33">
+        <v>10</v>
+      </c>
+      <c r="C15" s="34">
+        <v>95</v>
+      </c>
+      <c r="D15" s="34">
+        <v>96</v>
+      </c>
+      <c r="E15" s="34">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.32948675263694399</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.32576826308870399</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.33303127971195001</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.330732688492404</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2.63E-3</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.329754744683388</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="32">
+        <v>11</v>
+      </c>
+      <c r="C16" s="34">
+        <v>100</v>
+      </c>
+      <c r="D16" s="34">
+        <v>96</v>
+      </c>
+      <c r="E16" s="34">
+        <v>3</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.32938034811440797</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.326001668159772</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.33271206395298902</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.330894013139377</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.32974702172810499</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
+        <v>12</v>
+      </c>
+      <c r="C17" s="34">
+        <v>100</v>
+      </c>
+      <c r="D17" s="34">
+        <v>97</v>
+      </c>
+      <c r="E17" s="34">
+        <v>3</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.32899591887169999</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.32565156055317002</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.33287338804622701</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.331429473669758</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.32973758256053698</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="32">
+        <v>13</v>
+      </c>
+      <c r="C18" s="34">
+        <v>98</v>
+      </c>
+      <c r="D18" s="34">
+        <v>98</v>
+      </c>
+      <c r="E18" s="34">
+        <v>3</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.329785371780834</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.32606688428257102</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.33338138731855299</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.329692659385318</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.32973157581753898</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="33">
+        <v>14</v>
+      </c>
+      <c r="C19" s="34">
+        <v>98</v>
+      </c>
+      <c r="D19" s="34">
+        <v>95</v>
+      </c>
+      <c r="E19" s="34">
+        <v>3</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.32945929340532198</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.326235073230841</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.33339168460110002</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.32979906500353501</v>
+      </c>
+      <c r="K19" s="11">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.32972127854382799</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34">
+        <v>97</v>
+      </c>
+      <c r="D20" s="34">
+        <v>97</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.32949704984880201</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.32527742595395698</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.332801307068398</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.33119606779754102</v>
+      </c>
+      <c r="K20" s="11">
+        <v>2.8E-3</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.329692961041123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="33">
+        <v>16</v>
+      </c>
+      <c r="C21" s="34">
+        <v>96</v>
+      </c>
+      <c r="D21" s="34">
+        <v>98</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.33004280207728998</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.32564812812565402</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.33336422518097403</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.32966519987094001</v>
+      </c>
+      <c r="K21" s="11">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.32968008944898403</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="32">
+        <v>17</v>
+      </c>
+      <c r="C22" s="34">
+        <v>98</v>
+      </c>
+      <c r="D22" s="34">
+        <v>97</v>
+      </c>
+      <c r="E22" s="34">
+        <v>3</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.32932886205511702</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.32540785819955398</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.33276698279324002</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.33118233804035102</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.32967150838755799</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="33">
+        <v>18</v>
+      </c>
+      <c r="C23" s="34">
+        <v>96</v>
+      </c>
+      <c r="D23" s="34">
+        <v>97</v>
+      </c>
+      <c r="E23" s="34">
+        <v>3</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.32923275474444003</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.32508864244059299</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.33321663079779901</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.33113771632948602</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.32966893406913</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="32">
+        <v>19</v>
+      </c>
+      <c r="C24" s="34">
+        <v>99</v>
+      </c>
+      <c r="D24" s="34">
+        <v>97</v>
+      </c>
+      <c r="E24" s="34">
+        <v>3</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.32917783628119601</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.32538726363446002</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.33286995561871202</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.33124068950840602</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2.8E-3</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.32966893406913</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="33">
+        <v>20</v>
+      </c>
+      <c r="C25" s="34">
+        <v>95</v>
+      </c>
+      <c r="D25" s="34">
+        <v>97</v>
+      </c>
+      <c r="E25" s="34">
+        <v>3</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.32908516137447102</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.32508864244059299</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.33312738768238997</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.33112398657229702</v>
+      </c>
+      <c r="K25" s="11">
+        <v>2.97E-3</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.32960629232072203</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="32">
+        <v>21</v>
+      </c>
+      <c r="C26" s="34">
+        <v>100</v>
+      </c>
+      <c r="D26" s="34">
+        <v>95</v>
+      </c>
+      <c r="E26" s="34">
+        <v>3</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.32919156589700699</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.32598793844970902</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.33337452246352101</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.32985398403229199</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.32960200179000898</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="33">
+        <v>22</v>
+      </c>
+      <c r="C27" s="34">
+        <v>96</v>
+      </c>
+      <c r="D27" s="34">
+        <v>95</v>
+      </c>
+      <c r="E27" s="34">
+        <v>3</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.32895816242821901</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.32615269497046301</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.33334019818836402</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.32977847036775099</v>
+      </c>
+      <c r="K27" s="11">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.329557380270595</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="32">
+        <v>23</v>
+      </c>
+      <c r="C28" s="34">
+        <v>97</v>
+      </c>
+      <c r="D28" s="34">
+        <v>99</v>
+      </c>
+      <c r="E28" s="34">
+        <v>3</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.33009085573262897</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.32580601979137702</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.333089630979717</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.329143469097749</v>
+      </c>
+      <c r="K28" s="11">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.32953249519245997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="33">
+        <v>24</v>
+      </c>
+      <c r="C29" s="34">
+        <v>97</v>
+      </c>
+      <c r="D29" s="34">
+        <v>95</v>
+      </c>
+      <c r="E29" s="34">
+        <v>3</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.328951297620314</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.32610120855772801</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.33322692808034599</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.32969609182461601</v>
+      </c>
+      <c r="K29" s="11">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.32949388041604399</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="32">
+        <v>25</v>
+      </c>
+      <c r="C30" s="34">
+        <v>99</v>
+      </c>
+      <c r="D30" s="34">
+        <v>99</v>
+      </c>
+      <c r="E30" s="34">
+        <v>3</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.33033455641327503</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.32538383120694397</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.33302784728443402</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.32916749617282998</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.32947843450547698</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="33">
+        <v>26</v>
+      </c>
+      <c r="C31" s="34">
+        <v>95</v>
+      </c>
+      <c r="D31" s="34">
+        <v>95</v>
+      </c>
+      <c r="E31" s="34">
+        <v>3</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.32906456695075498</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.32614926254294802</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.33291800960393197</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.32973041621758897</v>
+      </c>
+      <c r="K31" s="11">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.32946556291333901</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="32">
+        <v>27</v>
+      </c>
+      <c r="C32" s="34">
+        <v>100</v>
+      </c>
+      <c r="D32" s="34">
+        <v>99</v>
+      </c>
+      <c r="E32" s="34">
+        <v>3</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.33000847803776301</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.32567215511826397</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.33270863152547298</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.32937001009137101</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.329439819729061</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="33">
+        <v>28</v>
+      </c>
+      <c r="C33" s="34">
+        <v>96</v>
+      </c>
+      <c r="D33" s="34">
+        <v>99</v>
+      </c>
+      <c r="E33" s="34">
+        <v>3</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.329981018806141</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.32552112830757202</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.33299009058176199</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.32919152324791101</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2.66E-3</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.32942094139392403</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <v>29</v>
+      </c>
+      <c r="C34" s="34">
+        <v>98</v>
+      </c>
+      <c r="D34" s="34">
+        <v>99</v>
+      </c>
+      <c r="E34" s="34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.329932965150802</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.32530145294656698</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.33303127971195001</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.32933225325910098</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.32939948874036001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="33">
+        <v>30</v>
+      </c>
+      <c r="C35" s="34">
+        <v>95</v>
+      </c>
+      <c r="D35" s="34">
+        <v>100</v>
+      </c>
+      <c r="E35" s="34">
+        <v>3</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.32921902512862899</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.32520534497612702</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.33291457717641598</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.33008395746521202</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.32935572532708801</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="32">
+        <v>31</v>
+      </c>
+      <c r="C36" s="34">
+        <v>96</v>
+      </c>
+      <c r="D36" s="34">
+        <v>100</v>
+      </c>
+      <c r="E36" s="34">
+        <v>3</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.32927737599582602</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.32520191254861103</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.33280817192342899</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.33010455210099598</v>
+      </c>
+      <c r="K36" s="11">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.329348002371805</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="33">
+        <v>32</v>
+      </c>
+      <c r="C37" s="34">
+        <v>97</v>
+      </c>
+      <c r="D37" s="34">
+        <v>100</v>
+      </c>
+      <c r="E37" s="34">
+        <v>3</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.32929110561163699</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.32522250711370598</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.33283563134355498</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.33001187623996803</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.329340279416522</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="32">
+        <v>33</v>
+      </c>
+      <c r="C38" s="34">
+        <v>95</v>
+      </c>
+      <c r="D38" s="34">
+        <v>99</v>
+      </c>
+      <c r="E38" s="34">
+        <v>3</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.329929532746849</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.32520191254861103</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.33289741503883702</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.32884484687888199</v>
+      </c>
+      <c r="K38" s="11">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.329218428344275</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="33">
+        <v>34</v>
+      </c>
+      <c r="C39" s="34">
+        <v>98</v>
+      </c>
+      <c r="D39" s="34">
+        <v>100</v>
+      </c>
+      <c r="E39" s="34">
+        <v>3</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.32918470108910097</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.32505431816543601</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.33254387500471899</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.32999471404348202</v>
+      </c>
+      <c r="K39" s="11">
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.32919440137228301</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="32">
+        <v>35</v>
+      </c>
+      <c r="C40" s="34">
+        <v>99</v>
+      </c>
+      <c r="D40" s="34">
+        <v>100</v>
+      </c>
+      <c r="E40" s="34">
+        <v>3</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.32931513243930599</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.324796886101757</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.33257819927987597</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.32967206474953398</v>
+      </c>
+      <c r="K40" s="11">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.32909057052903101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="33">
+        <v>36</v>
+      </c>
+      <c r="C41" s="34">
+        <v>100</v>
+      </c>
+      <c r="D41" s="34">
+        <v>100</v>
+      </c>
+      <c r="E41" s="34">
+        <v>3</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.329050837334944</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0.32493761562990098</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.33259879384497099</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0.32953819961693898</v>
+      </c>
+      <c r="K41" s="11">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.329031361205192</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="G4:L4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DEFCC-24AD-4C2D-9E22-292E8ADC9B35}">
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="41">
+        <v>8</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0.14970053</v>
+      </c>
+      <c r="F6" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="41">
+        <v>6</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0.11680087</v>
+      </c>
+      <c r="F7" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="41">
+        <v>5</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="58">
+        <v>6.9553180000000006E-2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="41">
+        <v>4</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="58">
+        <v>6.7161349999999995E-2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>7</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="58">
+        <v>6.5441689999999997E-2</v>
+      </c>
+      <c r="F10" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>1</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="58">
+        <v>6.4526970000000003E-2</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>2</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="58">
+        <v>5.7537449999999997E-2</v>
+      </c>
+      <c r="F12" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <v>3</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="58">
+        <v>5.4966279999999999E-2</v>
+      </c>
+      <c r="F13" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <v>10</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="58">
+        <v>4.4133869999999999E-2</v>
+      </c>
+      <c r="F14" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <v>9</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="58">
+        <v>4.3240979999999998E-2</v>
+      </c>
+      <c r="F15" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="41">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="58">
+        <v>4.2649390000000002E-2</v>
+      </c>
+      <c r="F16" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="41">
+        <v>11</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="58">
+        <v>3.9917870000000001E-2</v>
+      </c>
+      <c r="F17" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="58">
+        <v>3.9469230000000001E-2</v>
+      </c>
+      <c r="F18" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="41">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="58">
+        <v>3.830331E-2</v>
+      </c>
+      <c r="F19" s="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="41">
+        <v>12</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="58">
+        <v>3.8262959999999999E-2</v>
+      </c>
+      <c r="F20" s="42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="41">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="58">
+        <v>3.5713740000000001E-2</v>
+      </c>
+      <c r="F21" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="45">
+        <v>13</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="59">
+        <v>3.2620330000000003E-2</v>
+      </c>
+      <c r="F22" s="46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="52"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE342972-E1CF-4636-ABE7-1C9D0C23C345}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB24E5-86BF-45BF-AEBC-AEA87C1B80FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="4" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="4" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Feature Importance" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -949,6 +948,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,14 +968,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1017,14 +1016,11 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1034,11 +1030,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1061,24 +1060,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1109,6 +1090,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1123,12 +1120,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3045,6 +3044,454 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="286964192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Importance'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Significance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Importance'!$D$6:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>pDiff20SMAAbsBB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pDiffCloseUpperBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rsi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pDiffClose13SMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pDiffCloseLowerBB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>adjClosePChange</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pDiffClose5SMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pDiffClose8SMA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pDiff5SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pDiff5SMA8SMA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>adx</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pDiff8SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>stochPK</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>pDiffPdiNdi</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>macdHist</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>stochPD</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>deltaMacdHist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Importance'!$E$6:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.14970053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11680087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9553180000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7161349999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5441689999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4526970000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7537449999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4966279999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4133869999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3240979999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2649390000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9917870000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9469230000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.830331E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8262959999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5713740000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2620330000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392766640"/>
+        <c:axId val="392766968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392766640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392766968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5659,6 +6106,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6986,6 +7473,509 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11939,6 +12929,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD10084-1548-40A2-81EB-AF436E15ADF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
@@ -12034,16 +13065,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:F22" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:F22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="C5:F22" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
   <sortState ref="C6:F22">
     <sortCondition descending="1" ref="E5:E22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{8C2FD26F-A554-4427-841A-E31067F65BB6}" name="Period" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{8C2FD26F-A554-4427-841A-E31067F65BB6}" name="Period" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12377,12 +13408,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -12402,14 +13433,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -15041,12 +16072,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -15066,14 +16097,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -17117,12 +18148,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -17142,14 +18173,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -18603,10 +19634,10 @@
       <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -18644,14 +19675,14 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="N4" s="38"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -20327,7 +21358,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20376,7 +21407,7 @@
       <c r="C5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="52" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -20390,10 +21421,10 @@
       <c r="C6" s="41">
         <v>8</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="54">
         <v>0.14970053</v>
       </c>
       <c r="F6" s="42">
@@ -20404,10 +21435,10 @@
       <c r="C7" s="41">
         <v>6</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="54">
         <v>0.11680087</v>
       </c>
       <c r="F7" s="42">
@@ -20418,10 +21449,10 @@
       <c r="C8" s="41">
         <v>5</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="54">
         <v>6.9553180000000006E-2</v>
       </c>
       <c r="F8" s="42">
@@ -20432,10 +21463,10 @@
       <c r="C9" s="41">
         <v>4</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="54">
         <v>6.7161349999999995E-2</v>
       </c>
       <c r="F9" s="42">
@@ -20446,10 +21477,10 @@
       <c r="C10" s="41">
         <v>7</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="54">
         <v>6.5441689999999997E-2</v>
       </c>
       <c r="F10" s="42">
@@ -20460,10 +21491,10 @@
       <c r="C11" s="41">
         <v>1</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="54">
         <v>6.4526970000000003E-2</v>
       </c>
       <c r="F11" s="42">
@@ -20474,10 +21505,10 @@
       <c r="C12" s="41">
         <v>2</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="54">
         <v>5.7537449999999997E-2</v>
       </c>
       <c r="F12" s="42">
@@ -20488,10 +21519,10 @@
       <c r="C13" s="41">
         <v>3</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="54">
         <v>5.4966279999999999E-2</v>
       </c>
       <c r="F13" s="42">
@@ -20502,10 +21533,10 @@
       <c r="C14" s="41">
         <v>10</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="54">
         <v>4.4133869999999999E-2</v>
       </c>
       <c r="F14" s="42">
@@ -20516,10 +21547,10 @@
       <c r="C15" s="41">
         <v>9</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="54">
         <v>4.3240979999999998E-2</v>
       </c>
       <c r="F15" s="42">
@@ -20533,7 +21564,7 @@
       <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <v>4.2649390000000002E-2</v>
       </c>
       <c r="F16" s="42">
@@ -20544,10 +21575,10 @@
       <c r="C17" s="41">
         <v>11</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <v>3.9917870000000001E-2</v>
       </c>
       <c r="F17" s="42">
@@ -20561,7 +21592,7 @@
       <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="54">
         <v>3.9469230000000001E-2</v>
       </c>
       <c r="F18" s="42">
@@ -20575,7 +21606,7 @@
       <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="54">
         <v>3.830331E-2</v>
       </c>
       <c r="F19" s="42">
@@ -20586,10 +21617,10 @@
       <c r="C20" s="41">
         <v>12</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="54">
         <v>3.8262959999999999E-2</v>
       </c>
       <c r="F20" s="42">
@@ -20603,7 +21634,7 @@
       <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="54">
         <v>3.5713740000000001E-2</v>
       </c>
       <c r="F21" s="42">
@@ -20614,10 +21645,10 @@
       <c r="C22" s="45">
         <v>13</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="55">
         <v>3.2620330000000003E-2</v>
       </c>
       <c r="F22" s="46">
@@ -20625,56 +21656,57 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="55"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="54"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="54"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="54"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="54"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="54"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="54"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="54"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="54"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="54"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="54"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="54"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="54"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="52"/>
+      <c r="F37" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB24E5-86BF-45BF-AEBC-AEA87C1B80FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CCEE2-6F78-4CC8-A736-B35EF62A59CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="4" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Random Forest - Experiment  3b" sheetId="3" r:id="rId2"/>
     <sheet name="Random Forest - Experiment 3c" sheetId="4" r:id="rId3"/>
     <sheet name="Random Forest - Experiment 3d" sheetId="6" r:id="rId4"/>
-    <sheet name="Feature Importance" sheetId="7" r:id="rId5"/>
+    <sheet name="Random Forest - Results" sheetId="8" r:id="rId5"/>
+    <sheet name="Feature Importance" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="61">
   <si>
     <t>Run</t>
   </si>
@@ -209,6 +210,9 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>Experiment No</t>
   </si>
 </sst>
 </file>
@@ -851,7 +855,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -959,6 +963,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,6 +973,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1024,279 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="88">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -12971,110 +13253,133 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="62" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="61" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="60" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="59" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="58" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="57" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="76" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="75" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="74" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="73" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="71" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="45" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="44" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="43" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="42" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="59" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="58" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="57" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="56" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="54" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="42" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="37" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="C5:L60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:L60">
     <sortCondition descending="1" ref="L5:L60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="22" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:F22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="C3:M6" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
+  <sortState ref="C4:M6">
+    <sortCondition descending="1" ref="M3:M6"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:F22" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="C5:F22" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
   <sortState ref="C6:F22">
     <sortCondition descending="1" ref="E5:E22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{8C2FD26F-A554-4427-841A-E31067F65BB6}" name="Period" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{8C2FD26F-A554-4427-841A-E31067F65BB6}" name="Period" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13408,12 +13713,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -13433,14 +13738,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -16072,12 +16377,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -16097,14 +16402,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -18148,12 +18453,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -18173,14 +18478,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -19607,7 +19912,7 @@
   <dimension ref="B2:X60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19634,10 +19939,10 @@
       <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -19675,14 +19980,14 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="N4" s="38"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -21354,11 +21659,202 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
+  <dimension ref="B2:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="13" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18">
+        <v>100</v>
+      </c>
+      <c r="E4" s="18">
+        <v>98</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0.32956351507131498</v>
+      </c>
+      <c r="I4" s="61">
+        <v>0.32585162548941998</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0.33261596914083402</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0.33080493719368398</v>
+      </c>
+      <c r="L4" s="61">
+        <v>2.4775013570661601E-3</v>
+      </c>
+      <c r="M4" s="61">
+        <v>0.32970901172381301</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="56">
+        <v>2</v>
+      </c>
+      <c r="D5" s="56">
+        <v>70</v>
+      </c>
+      <c r="E5" s="56">
+        <v>60</v>
+      </c>
+      <c r="F5" s="56">
+        <v>3</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.32904510821742999</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.324961460280214</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.33280014188122198</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.33017397502753998</v>
+      </c>
+      <c r="L5" s="11">
+        <v>2.8235924606646E-3</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.32924517135160197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" s="56">
+        <v>100</v>
+      </c>
+      <c r="E6" s="56">
+        <v>50</v>
+      </c>
+      <c r="F6" s="56">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.32928000000000002</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.325521</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.33230599999999999</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.32947100000000001</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2.4109999999999999E-3</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.32914500000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DEFCC-24AD-4C2D-9E22-292E8ADC9B35}">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CCEE2-6F78-4CC8-A736-B35EF62A59CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A6F1E-F40D-4804-8A1E-BDBF1E79B1E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="4" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="5" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Random Forest - Results" sheetId="8" r:id="rId5"/>
     <sheet name="Feature Importance" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="63">
   <si>
     <t>Run</t>
   </si>
@@ -206,13 +206,19 @@
     <t>pDiffPdiNdi</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
     <t>Experiment No</t>
+  </si>
+  <si>
+    <t>obvPrediction5</t>
+  </si>
+  <si>
+    <t>obvPrediction8</t>
+  </si>
+  <si>
+    <t>obvPrediction13</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -946,21 +952,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -975,9 +979,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1024,9 +1029,91 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="87">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1285,116 +1372,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3437,11 +3428,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Importance'!$E$5</c:f>
+              <c:f>'Feature Importance'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Significance</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3457,7 +3448,63 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3471,12 +3518,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+                <c16:uniqueId val="{00000009-6B81-4F05-A369-EEAC47CE2105}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3490,12 +3537,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+                <c16:uniqueId val="{0000000A-6B81-4F05-A369-EEAC47CE2105}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="15"/>
+            <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3509,34 +3556,15 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-4195-4BCD-A0B3-FBBE77AB2D35}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+                <c16:uniqueId val="{0000000B-6B81-4F05-A369-EEAC47CE2105}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Importance'!$D$6:$D$22</c:f>
+              <c:f>'Feature Importance'!$D$6:$D$25</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>pDiff20SMAAbsBB</c:v>
                 </c:pt>
@@ -3544,28 +3572,28 @@
                   <c:v>pDiffCloseUpperBB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>rsi</c:v>
+                  <c:v>pDiffCloseLowerBB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>pDiffClose13SMA</c:v>
+                  <c:v>pDiffClose8SMA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>pDiffCloseLowerBB</c:v>
+                  <c:v>rsi</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>adjClosePChange</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>pDiffClose13SMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>pDiffClose5SMA</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>pDiffClose8SMA</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>pDiff5SMA13SMA</c:v>
+                  <c:v>pDiff5SMA8SMA</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>pDiff5SMA8SMA</c:v>
+                  <c:v>pDiff5SMA13SMA</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>adx</c:v>
@@ -3574,10 +3602,10 @@
                   <c:v>pDiff8SMA13SMA</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>stochPK</c:v>
+                  <c:v>pDiffPdiNdi</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>pDiffPdiNdi</c:v>
+                  <c:v>stochPK</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>macdHist</c:v>
@@ -3588,72 +3616,90 @@
                 <c:pt idx="16">
                   <c:v>deltaMacdHist</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>obvPrediction13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>obvPrediction5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>obvPrediction8</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Importance'!$E$6:$E$22</c:f>
+              <c:f>'Feature Importance'!$E$6:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.14970053</c:v>
+                  <c:v>0.14301652000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11680087</c:v>
+                  <c:v>0.10907333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9553180000000006E-2</c:v>
+                  <c:v>7.2038500000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7161349999999995E-2</c:v>
+                  <c:v>6.7892569999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5441689999999997E-2</c:v>
+                  <c:v>6.3237539999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4526970000000003E-2</c:v>
+                  <c:v>6.1827319999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7537449999999997E-2</c:v>
+                  <c:v>5.9896289999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4966279999999999E-2</c:v>
+                  <c:v>5.9722079999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4133869999999999E-2</c:v>
+                  <c:v>4.8754619999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3240979999999998E-2</c:v>
+                  <c:v>4.6187659999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2649390000000002E-2</c:v>
+                  <c:v>4.2015200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9917870000000001E-2</c:v>
+                  <c:v>4.1828709999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9469230000000001E-2</c:v>
+                  <c:v>3.85647E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.830331E-2</c:v>
+                  <c:v>3.7980710000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8262959999999999E-2</c:v>
+                  <c:v>3.6309540000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5713740000000001E-2</c:v>
+                  <c:v>3.4540000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2620330000000003E-2</c:v>
+                  <c:v>3.1262249999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0380699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.73102E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4195-4BCD-A0B3-FBBE77AB2D35}"/>
+              <c16:uniqueId val="{00000008-6B81-4F05-A369-EEAC47CE2105}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13253,133 +13299,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="76" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="75" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="74" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="73" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="72" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="71" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="75" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="74" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="73" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="71" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="70" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="59" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="58" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="57" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="56" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="55" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="58" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="57" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="56" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="53" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="42" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="36" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="C5:L60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:L60">
     <sortCondition descending="1" ref="L5:L60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="21" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="C3:M6" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C4:M6">
     <sortCondition descending="1" ref="M3:M6"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:F22" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="C5:F22" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
-  <sortState ref="C6:F22">
-    <sortCondition descending="1" ref="E5:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E25" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="C5:E25" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
+  <sortState ref="C6:E25">
+    <sortCondition descending="1" ref="E5:E25"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{8C2FD26F-A554-4427-841A-E31067F65BB6}" name="Period" dataDxfId="14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13713,12 +13758,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -13738,14 +13783,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -16377,12 +16422,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -16402,14 +16447,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -18453,12 +18498,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -18478,14 +18523,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -19939,10 +19984,10 @@
       <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -19980,14 +20025,14 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
       <c r="N4" s="38"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -21662,7 +21707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
   <dimension ref="B2:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -21677,50 +21722,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="51" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21728,7 +21773,7 @@
       <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="51">
         <v>3</v>
       </c>
       <c r="D4" s="18">
@@ -21743,22 +21788,22 @@
       <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="52">
         <v>0.32956351507131498</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="52">
         <v>0.32585162548941998</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="52">
         <v>0.33261596914083402</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="52">
         <v>0.33080493719368398</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="52">
         <v>2.4775013570661601E-3</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="52">
         <v>0.32970901172381301</v>
       </c>
     </row>
@@ -21766,19 +21811,19 @@
       <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="51">
         <v>2</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="51">
         <v>70</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="51">
         <v>60</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="51">
         <v>3</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="51" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="11">
@@ -21804,19 +21849,19 @@
       <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="51">
         <v>1</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="51">
         <v>100</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="51">
         <v>50</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="51">
         <v>1</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="11">
@@ -21853,8 +21898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DEFCC-24AD-4C2D-9E22-292E8ADC9B35}">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21892,166 +21937,147 @@
       <c r="E3" s="1">
         <v>96</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="57">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="37"/>
+    </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>58</v>
-      </c>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="41">
         <v>8</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="54">
-        <v>0.14970053</v>
-      </c>
-      <c r="F6" s="42">
-        <v>20</v>
-      </c>
+      <c r="E6" s="59">
+        <v>0.14301652000000001</v>
+      </c>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="41">
         <v>6</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="54">
-        <v>0.11680087</v>
-      </c>
-      <c r="F7" s="42">
-        <v>20</v>
-      </c>
+      <c r="E7" s="59">
+        <v>0.10907333</v>
+      </c>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="41">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="54">
-        <v>6.9553180000000006E-2</v>
-      </c>
-      <c r="F8" s="42">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="59">
+        <v>7.2038500000000005E-2</v>
+      </c>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="41">
-        <v>4</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="54">
-        <v>6.7161349999999995E-2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="59">
+        <v>6.7892569999999999E-2</v>
+      </c>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="41">
-        <v>7</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="54">
-        <v>6.5441689999999997E-2</v>
-      </c>
-      <c r="F10" s="42">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="59">
+        <v>6.3237539999999995E-2</v>
+      </c>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="41">
         <v>1</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="54">
-        <v>6.4526970000000003E-2</v>
-      </c>
-      <c r="F11" s="42">
-        <v>1</v>
-      </c>
+      <c r="E11" s="59">
+        <v>6.1827319999999998E-2</v>
+      </c>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="41">
-        <v>2</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="54">
-        <v>5.7537449999999997E-2</v>
-      </c>
-      <c r="F12" s="42">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="59">
+        <v>5.9896289999999998E-2</v>
+      </c>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" s="41">
-        <v>3</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="54">
-        <v>5.4966279999999999E-2</v>
-      </c>
-      <c r="F13" s="42">
-        <v>8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="59">
+        <v>5.9722079999999997E-2</v>
+      </c>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="41">
-        <v>10</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="54">
-        <v>4.4133869999999999E-2</v>
-      </c>
-      <c r="F14" s="42">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="59">
+        <v>4.8754619999999999E-2</v>
+      </c>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="41">
-        <v>9</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="54">
-        <v>4.3240979999999998E-2</v>
-      </c>
-      <c r="F15" s="42">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="59">
+        <v>4.6187659999999998E-2</v>
+      </c>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="41">
@@ -22060,68 +22086,58 @@
       <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="54">
-        <v>4.2649390000000002E-2</v>
-      </c>
-      <c r="F16" s="42">
-        <v>28</v>
-      </c>
+      <c r="E16" s="59">
+        <v>4.2015200000000003E-2</v>
+      </c>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="41">
         <v>11</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="54">
-        <v>3.9917870000000001E-2</v>
-      </c>
-      <c r="F17" s="42">
-        <v>13</v>
-      </c>
+      <c r="E17" s="59">
+        <v>4.1828709999999998E-2</v>
+      </c>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="41">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="54">
-        <v>3.9469230000000001E-2</v>
-      </c>
-      <c r="F18" s="42">
-        <v>5</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E18" s="59">
+        <v>3.85647E-2</v>
+      </c>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="41">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="54">
-        <v>3.830331E-2</v>
-      </c>
-      <c r="F19" s="42">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E19" s="59">
+        <v>3.7980710000000001E-2</v>
+      </c>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="41">
         <v>12</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="54">
-        <v>3.8262959999999999E-2</v>
-      </c>
-      <c r="F20" s="42">
-        <v>35</v>
-      </c>
+      <c r="E20" s="59">
+        <v>3.6309540000000001E-2</v>
+      </c>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="41">
@@ -22130,73 +22146,94 @@
       <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54">
-        <v>3.5713740000000001E-2</v>
-      </c>
-      <c r="F21" s="42">
-        <v>8</v>
-      </c>
+      <c r="E21" s="59">
+        <v>3.4540000000000001E-2</v>
+      </c>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="45">
+      <c r="C22" s="44">
         <v>13</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="55">
-        <v>3.2620330000000003E-2</v>
-      </c>
-      <c r="F22" s="46">
-        <v>36</v>
-      </c>
+      <c r="E22" s="60">
+        <v>3.1262249999999998E-2</v>
+      </c>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="C23" s="44">
+        <v>20</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="60">
+        <v>2.0833599999999998E-3</v>
+      </c>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="51"/>
+      <c r="C24" s="44">
+        <v>18</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="60">
+        <v>2.0380699999999999E-3</v>
+      </c>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="50"/>
+      <c r="C25" s="44">
+        <v>19</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="60">
+        <v>1.73102E-3</v>
+      </c>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="50"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="50"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="50"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="50"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="50"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="50"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="50"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="50"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="50"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="50"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="50"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="48"/>
+      <c r="F37" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A6F1E-F40D-4804-8A1E-BDBF1E79B1E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA0AB40-C77B-4CD1-B46F-74E384A24878}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="5" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="66">
   <si>
     <t>Run</t>
   </si>
@@ -212,13 +212,22 @@
     <t>Experiment No</t>
   </si>
   <si>
-    <t>obvPrediction5</t>
+    <t>obvGrad5</t>
   </si>
   <si>
-    <t>obvPrediction8</t>
+    <t>adjCloseGrad5</t>
   </si>
   <si>
-    <t>obvPrediction13</t>
+    <t>obvGrad8</t>
+  </si>
+  <si>
+    <t>adjCloseGrad8</t>
+  </si>
+  <si>
+    <t>obvGrad13</t>
+  </si>
+  <si>
+    <t>adjCloseGrad13</t>
   </si>
 </sst>
 </file>
@@ -861,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -967,6 +976,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,10 +992,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -3460,6 +3470,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E411-4E70-8E7B-7E5FB8B18973}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -3474,6 +3489,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E411-4E70-8E7B-7E5FB8B18973}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -3488,6 +3508,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E411-4E70-8E7B-7E5FB8B18973}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -3502,6 +3527,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E411-4E70-8E7B-7E5FB8B18973}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -3560,11 +3590,58 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-E411-4E70-8E7B-7E5FB8B18973}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Importance'!$D$6:$D$25</c:f>
+              <c:f>'Feature Importance'!$D$6:$D$28</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>pDiff20SMAAbsBB</c:v>
                 </c:pt>
@@ -3617,23 +3694,32 @@
                   <c:v>deltaMacdHist</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>obvPrediction13</c:v>
+                  <c:v>adjCloseGrad13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>obvPrediction5</c:v>
+                  <c:v>adjCloseGrad8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>obvPrediction8</c:v>
+                  <c:v>adjCloseGrad5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>obvGrad13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>obvGrad5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>obvGrad8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Importance'!$E$6:$E$25</c:f>
+              <c:f>'Feature Importance'!$E$6:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.14301652000000001</c:v>
                 </c:pt>
@@ -3686,13 +3772,22 @@
                   <c:v>3.1262249999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0833599999999998E-3</c:v>
+                  <c:v>2.7074071483750298E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0380699999999999E-3</c:v>
+                  <c:v>2.1984429856400999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.73102E-3</c:v>
+                  <c:v>2.1370973945868201E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0340901198513402E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.92756776065383E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.92232196865363E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13416,10 +13511,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E25" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C5:E25" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
-  <sortState ref="C6:E25">
-    <sortCondition descending="1" ref="E5:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E28" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
+  <sortState ref="C6:E28">
+    <sortCondition descending="1" ref="E5:E28"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="2"/>
@@ -13758,12 +13853,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -13783,14 +13878,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -16422,12 +16517,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -16447,14 +16542,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -18498,12 +18593,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -18523,14 +18618,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -19984,10 +20079,10 @@
       <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -20025,14 +20120,14 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="N4" s="38"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -21722,14 +21817,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -21899,7 +21994,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21937,7 +22032,7 @@
       <c r="E3" s="1">
         <v>96</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="53">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -21966,7 +22061,7 @@
       <c r="D6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="55">
         <v>0.14301652000000001</v>
       </c>
       <c r="F6" s="37"/>
@@ -21978,7 +22073,7 @@
       <c r="D7" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="55">
         <v>0.10907333</v>
       </c>
       <c r="F7" s="37"/>
@@ -21990,7 +22085,7 @@
       <c r="D8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="55">
         <v>7.2038500000000005E-2</v>
       </c>
       <c r="F8" s="37"/>
@@ -22002,7 +22097,7 @@
       <c r="D9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="55">
         <v>6.7892569999999999E-2</v>
       </c>
       <c r="F9" s="37"/>
@@ -22014,7 +22109,7 @@
       <c r="D10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="55">
         <v>6.3237539999999995E-2</v>
       </c>
       <c r="F10" s="37"/>
@@ -22026,7 +22121,7 @@
       <c r="D11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="55">
         <v>6.1827319999999998E-2</v>
       </c>
       <c r="F11" s="37"/>
@@ -22038,7 +22133,7 @@
       <c r="D12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="55">
         <v>5.9896289999999998E-2</v>
       </c>
       <c r="F12" s="37"/>
@@ -22050,7 +22145,7 @@
       <c r="D13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="55">
         <v>5.9722079999999997E-2</v>
       </c>
       <c r="F13" s="37"/>
@@ -22062,7 +22157,7 @@
       <c r="D14" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="55">
         <v>4.8754619999999999E-2</v>
       </c>
       <c r="F14" s="37"/>
@@ -22074,7 +22169,7 @@
       <c r="D15" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="55">
         <v>4.6187659999999998E-2</v>
       </c>
       <c r="F15" s="37"/>
@@ -22086,7 +22181,7 @@
       <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="55">
         <v>4.2015200000000003E-2</v>
       </c>
       <c r="F16" s="37"/>
@@ -22098,7 +22193,7 @@
       <c r="D17" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="55">
         <v>4.1828709999999998E-2</v>
       </c>
       <c r="F17" s="37"/>
@@ -22110,7 +22205,7 @@
       <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="55">
         <v>3.85647E-2</v>
       </c>
       <c r="F18" s="37"/>
@@ -22122,7 +22217,7 @@
       <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="55">
         <v>3.7980710000000001E-2</v>
       </c>
       <c r="F19" s="37"/>
@@ -22134,7 +22229,7 @@
       <c r="D20" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="55">
         <v>3.6309540000000001E-2</v>
       </c>
       <c r="F20" s="37"/>
@@ -22146,7 +22241,7 @@
       <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="55">
         <v>3.4540000000000001E-2</v>
       </c>
       <c r="F21" s="37"/>
@@ -22158,32 +22253,32 @@
       <c r="D22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="56">
         <v>3.1262249999999998E-2</v>
       </c>
       <c r="F22" s="37"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="44">
-        <v>20</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="60">
-        <v>2.0833599999999998E-3</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="56">
+        <v>2.7074071483750298E-2</v>
       </c>
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="44">
-        <v>18</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="60">
-        <v>2.0380699999999999E-3</v>
+        <v>21</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="56">
+        <v>2.1984429856400999E-2</v>
       </c>
       <c r="F24" s="48"/>
     </row>
@@ -22191,21 +22286,48 @@
       <c r="C25" s="44">
         <v>19</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="60">
-        <v>1.73102E-3</v>
+      <c r="E25" s="56">
+        <v>2.1370973945868201E-2</v>
       </c>
       <c r="F25" s="48"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="44">
+        <v>22</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="61">
+        <v>2.0340901198513402E-2</v>
+      </c>
       <c r="F26" s="48"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="44">
+        <v>18</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="61">
+        <v>1.92756776065383E-2</v>
+      </c>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="44">
+        <v>20</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="61">
+        <v>1.92232196865363E-2</v>
+      </c>
       <c r="F28" s="47"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">

--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA0AB40-C77B-4CD1-B46F-74E384A24878}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876013F0-A45D-492E-87E6-404723B9B8B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="5" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="6" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Random Forest - Experiment 3d" sheetId="6" r:id="rId4"/>
     <sheet name="Random Forest - Results" sheetId="8" r:id="rId5"/>
     <sheet name="Feature Importance" sheetId="7" r:id="rId6"/>
+    <sheet name="Feature Importance - grads 1" sheetId="10" r:id="rId7"/>
+    <sheet name="Feature Importance - grads 2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="73">
   <si>
     <t>Run</t>
   </si>
@@ -228,6 +230,27 @@
   </si>
   <si>
     <t>adjCloseGrad13</t>
+  </si>
+  <si>
+    <t>obvGrad20</t>
+  </si>
+  <si>
+    <t>adjCloseGrad20</t>
+  </si>
+  <si>
+    <t>obvGrad35</t>
+  </si>
+  <si>
+    <t>adjCloseGrad35</t>
+  </si>
+  <si>
+    <t>obvGrad50</t>
+  </si>
+  <si>
+    <t>adjCloseGrad50</t>
+  </si>
+  <si>
+    <t>Prev Value</t>
   </si>
 </sst>
 </file>
@@ -980,6 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,7 +1016,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1039,7 +1062,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="101">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1096,30 +1119,232 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3622,6 +3847,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A7F1-4CFC-B564-94A4BBB97B52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -3636,6 +3866,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-A7F1-4CFC-B564-94A4BBB97B52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3795,6 +4030,1197 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-6B81-4F05-A369-EEAC47CE2105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392766640"/>
+        <c:axId val="392766968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392766640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392766968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Importance - grads 1'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-6A33-4771-B51A-E59CBF36D97A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Importance - grads 1'!$D$6:$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>pDiff20SMAAbsBB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pDiffCloseUpperBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pDiffCloseLowerBB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pDiffClose8SMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rsi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>adjClosePChange</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pDiffClose13SMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pDiffClose5SMA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pDiff5SMA8SMA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pDiff5SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>adx</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>pDiff8SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>pDiffPdiNdi</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>stochPK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>macdHist</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>stochPD</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>deltaMacdHist</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>adjCloseGrad13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>adjCloseGrad8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>adjCloseGrad5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>obvGrad13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>obvGrad5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>obvGrad8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Importance - grads 1'!$E$6:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.12664518846030778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6587530124794957E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.379213680278252E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0120798091749382E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5998636878216941E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4749847034424801E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3039865150705995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2885597250174853E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.317360007229018E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0900484120580047E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7205652341404501E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7040510152264644E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4150136637468395E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3632996913966977E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2153128437239865E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0586150532952629E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7683609858100703E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7074071483750298E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1984429856400999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1370973945868201E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0340901198513402E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.92756776065383E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.92232196865363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-6A33-4771-B51A-E59CBF36D97A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392766640"/>
+        <c:axId val="392766968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392766640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392766968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Importance - grads 2'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-79FC-497B-A30C-D813EADEF5FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Importance - grads 2'!$D$6:$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>pDiff20SMAAbsBB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pDiffCloseUpperBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pDiffCloseLowerBB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>adjClosePChange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rsi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pDiffClose8SMA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pDiffClose5SMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pDiffClose13SMA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pDiff5SMA8SMA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pDiff5SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pDiff8SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>adx</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>adjCloseGrad20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>stochPK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pDiffPdiNdi</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>stochPD</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>macdHist</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>adjCloseGrad50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>deltaMacdHist</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>adjCloseGrad35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>obvGrad20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>obvGrad50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>obvGrad35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Importance - grads 2'!$E$6:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.14542756976240701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3130463587462797E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1651402078246001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6440187552913898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3856545578404899E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3252756540848198E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.08652965343942E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9077774057756297E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.27079899356742E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2005982602869502E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6282156455275799E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.38277143523458E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3547211858485103E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0423886891282E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9293507134485999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.78079375646904E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.68048352945079E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6217196776811499E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4076458607779402E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3735194058537801E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0740330681721899E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.95885195987122E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.92390824943851E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-79FC-497B-A30C-D813EADEF5FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6530,6 +7956,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8399,6 +9905,1012 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13393,133 +15905,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E50C283-265E-41A8-BCFE-A0D67F7661D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477236AD-1B77-4FA8-943F-50264740E2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="75" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="74" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="73" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="72" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="71" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="70" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="89" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="88" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="87" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="86" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="85" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="84" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="58" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="57" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="56" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="55" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="54" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="71" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="70" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="69" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="68" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="67" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="52" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="50" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="C5:L60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:L60">
     <sortCondition descending="1" ref="L5:L60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="40" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="39" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="37" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="35" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="C3:M6" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C4:M6">
     <sortCondition descending="1" ref="M3:M6"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E28" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E28" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
   <sortState ref="C6:E28">
     <sortCondition descending="1" ref="E5:E28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="7" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A2387CD0-9230-421E-A797-F66273C05B24}" name="Table59" displayName="Table59" ref="C5:E28" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
+  <sortState ref="C6:E28">
+    <sortCondition descending="1" ref="E5:E28"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3F70DB16-4613-4654-847F-9DB72422BB67}" name="No." dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0CB72B46-4696-4101-A594-289243B40264}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E5F3193B-C6FE-4AE7-8EFE-FDF6D5234DE7}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C1851EB-E4C8-431D-8C60-199CC7129B8A}" name="Table58" displayName="Table58" ref="C5:E28" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
+  <sortState ref="C6:E28">
+    <sortCondition descending="1" ref="E5:E28"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B7463D4D-4E37-4C4F-AF90-8C359D8DDF9E}" name="No." dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7542D23F-DD92-4E79-A213-6DD8F6C191F8}" name="Feature" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{AA80DD01-B626-41B0-B74F-014FE63A52DA}" name="Significance" dataDxfId="14" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13853,12 +16481,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -13878,14 +16506,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -16517,12 +19145,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -16542,14 +19170,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -18593,12 +21221,12 @@
       <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
@@ -18618,14 +21246,14 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
@@ -20079,10 +22707,10 @@
       <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
@@ -20120,14 +22748,14 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
       <c r="N4" s="38"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -21817,14 +24445,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -21993,8 +24621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DEFCC-24AD-4C2D-9E22-292E8ADC9B35}">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22301,7 +24929,7 @@
       <c r="D26" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="57">
         <v>2.0340901198513402E-2</v>
       </c>
       <c r="F26" s="48"/>
@@ -22313,7 +24941,7 @@
       <c r="D27" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="57">
         <v>1.92756776065383E-2</v>
       </c>
       <c r="F27" s="47"/>
@@ -22325,8 +24953,815 @@
       <c r="D28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="57">
         <v>1.92232196865363E-2</v>
+      </c>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00077F86-CE8B-4E13-9FC0-C899A1A0B134}">
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>96</v>
+      </c>
+      <c r="F3" s="53">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="41">
+        <v>8</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F6</f>
+        <v>0.12664518846030778</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.14301652000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="41">
+        <v>6</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F7</f>
+        <v>9.6587530124794957E-2</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.10907333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="41">
+        <v>7</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F8</f>
+        <v>6.379213680278252E-2</v>
+      </c>
+      <c r="F8" s="37">
+        <v>7.2038500000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="41">
+        <v>3</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F9</f>
+        <v>6.0120798091749382E-2</v>
+      </c>
+      <c r="F9" s="37">
+        <v>6.7892569999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>5</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F10</f>
+        <v>5.5998636878216941E-2</v>
+      </c>
+      <c r="F10" s="37">
+        <v>6.3237539999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>1</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F11</f>
+        <v>5.4749847034424801E-2</v>
+      </c>
+      <c r="F11" s="37">
+        <v>6.1827319999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>4</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F12</f>
+        <v>5.3039865150705995E-2</v>
+      </c>
+      <c r="F12" s="37">
+        <v>5.9896289999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <v>2</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F13</f>
+        <v>5.2885597250174853E-2</v>
+      </c>
+      <c r="F13" s="37">
+        <v>5.9722079999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <v>9</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F14</f>
+        <v>4.317360007229018E-2</v>
+      </c>
+      <c r="F14" s="37">
+        <v>4.8754619999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <v>10</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F15</f>
+        <v>4.0900484120580047E-2</v>
+      </c>
+      <c r="F15" s="37">
+        <v>4.6187659999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="41">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F16</f>
+        <v>3.7205652341404501E-2</v>
+      </c>
+      <c r="F16" s="37">
+        <v>4.2015200000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="41">
+        <v>11</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F17</f>
+        <v>3.7040510152264644E-2</v>
+      </c>
+      <c r="F17" s="37">
+        <v>4.1828709999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F18</f>
+        <v>3.4150136637468395E-2</v>
+      </c>
+      <c r="F18" s="37">
+        <v>3.85647E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="41">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F19</f>
+        <v>3.3632996913966977E-2</v>
+      </c>
+      <c r="F19" s="37">
+        <v>3.7980710000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="41">
+        <v>12</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F20</f>
+        <v>3.2153128437239865E-2</v>
+      </c>
+      <c r="F20" s="37">
+        <v>3.6309540000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="41">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F21</f>
+        <v>3.0586150532952629E-2</v>
+      </c>
+      <c r="F21" s="37">
+        <v>3.4540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="44">
+        <v>13</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="55">
+        <f>(1/(1+SUM($E$23:$E$28)))*F22</f>
+        <v>2.7683609858100703E-2</v>
+      </c>
+      <c r="F22" s="37">
+        <v>3.1262249999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="44">
+        <v>23</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="56">
+        <v>2.7074071483750298E-2</v>
+      </c>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="44">
+        <v>21</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="56">
+        <v>2.1984429856400999E-2</v>
+      </c>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="44">
+        <v>19</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="56">
+        <v>2.1370973945868201E-2</v>
+      </c>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="44">
+        <v>22</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="57">
+        <v>2.0340901198513402E-2</v>
+      </c>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="44">
+        <v>18</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1.92756776065383E-2</v>
+      </c>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="44">
+        <v>20</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1.92232196865363E-2</v>
+      </c>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4781EF30-F708-45DE-8151-AAEB7BA8A832}">
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>96</v>
+      </c>
+      <c r="F3" s="53">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="41">
+        <v>8</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.14542756976240701</v>
+      </c>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="41">
+        <v>6</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="55">
+        <v>9.3130463587462797E-2</v>
+      </c>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="41">
+        <v>7</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="55">
+        <v>6.1651402078246001E-2</v>
+      </c>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="55">
+        <v>5.6440187552913898E-2</v>
+      </c>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>5</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="55">
+        <v>5.3856545578404899E-2</v>
+      </c>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>3</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="55">
+        <v>5.3252756540848198E-2</v>
+      </c>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>2</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="55">
+        <v>5.08652965343942E-2</v>
+      </c>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <v>4</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="55">
+        <v>4.9077774057756297E-2</v>
+      </c>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <v>9</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="55">
+        <v>4.27079899356742E-2</v>
+      </c>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <v>10</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="55">
+        <v>4.2005982602869502E-2</v>
+      </c>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="41">
+        <v>11</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="55">
+        <v>3.6282156455275799E-2</v>
+      </c>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="41">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="55">
+        <v>3.38277143523458E-2</v>
+      </c>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="55">
+        <v>3.3547211858485103E-2</v>
+      </c>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="41">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="55">
+        <v>3.0423886891282E-2</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="41">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="55">
+        <v>2.9293507134485999E-2</v>
+      </c>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="41">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="55">
+        <v>2.78079375646904E-2</v>
+      </c>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="44">
+        <v>12</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="56">
+        <v>2.68048352945079E-2</v>
+      </c>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="44">
+        <v>23</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="56">
+        <v>2.6217196776811499E-2</v>
+      </c>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="44">
+        <v>13</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="56">
+        <v>2.4076458607779402E-2</v>
+      </c>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="44">
+        <v>21</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="56">
+        <v>2.3735194058537801E-2</v>
+      </c>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="44">
+        <v>18</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="57">
+        <v>2.0740330681721899E-2</v>
+      </c>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="44">
+        <v>22</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1.95885195987122E-2</v>
+      </c>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="44">
+        <v>20</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1.92390824943851E-2</v>
       </c>
       <c r="F28" s="47"/>
     </row>

--- a/Results/Random Forest/RandomizedSearchCV Results.xlsx
+++ b/Results/Random Forest/RandomizedSearchCV Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876013F0-A45D-492E-87E6-404723B9B8B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72DAD4-D89D-433E-A3CB-671C62DE8D00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="6" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="5" activeTab="8" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest - Experiment 3a" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Feature Importance" sheetId="7" r:id="rId6"/>
     <sheet name="Feature Importance - grads 1" sheetId="10" r:id="rId7"/>
     <sheet name="Feature Importance - grads 2" sheetId="9" r:id="rId8"/>
+    <sheet name="Feature Importance - grads 3" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="73">
   <si>
     <t>Run</t>
   </si>
@@ -893,7 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1016,6 +1017,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1062,7 +1065,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="108">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1220,116 +1223,8 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1345,6 +1240,215 @@
         </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -3663,11 +3767,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Importance'!$D$5</c:f>
+              <c:f>'Feature Importance'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature</c:v>
+                  <c:v>Significance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4261,11 +4365,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Importance - grads 1'!$D$5</c:f>
+              <c:f>'Feature Importance - grads 1'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature</c:v>
+                  <c:v>Significance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4859,11 +4963,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Importance - grads 2'!$D$5</c:f>
+              <c:f>'Feature Importance - grads 2'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature</c:v>
+                  <c:v>Significance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4891,6 +4995,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0289-4498-AE4C-21611C4E9D2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -5221,6 +5330,679 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-79FC-497B-A30C-D813EADEF5FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392766640"/>
+        <c:axId val="392766968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392766640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392766968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392766640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Importance - grads 3'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Significance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-0D44-4352-9461-33FDDA8AA4E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Importance - grads 3'!$D$6:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>pDiff20SMAAbsBB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pDiffCloseUpperBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pDiffCloseLowerBB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>adjClosePChange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pDiffClose13SMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pDiffClose8SMA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rsi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pDiffClose5SMA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pDiff5SMA8SMA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pDiff5SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pDiff8SMA13SMA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>adx</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>adjCloseGrad20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>stochPK</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>pDiffPdiNdi</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>stochPD</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>adjCloseGrad50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>macdHist</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>adjCloseGrad35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>adjCloseGrad13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>deltaMacdHist</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>adjCloseGrad8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>adjCloseGrad5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>obvGrad13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>obvGrad8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>obvGrad5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Importance - grads 3'!$E$6:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.13446714000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.068946E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8627470000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5475160000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2115649999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1443639999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0728269999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0184659999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.137031E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7103240000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3366369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.030242E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.98718E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7910689999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6639110000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5489399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4434129999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.350476E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.281644E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1889530000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.084022E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9522089999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9319360000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.801763E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.69721E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6898960000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-0D44-4352-9461-33FDDA8AA4E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8075,6 +8857,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10911,6 +11733,509 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15991,163 +17316,221 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6206D0A-8442-462C-B9B0-FF410CE83AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14DA553B-92E6-4BF9-8F25-154294C675F6}" name="Table1" displayName="Table1" ref="C5:N60" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="89" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="88" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="87" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="86" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="85" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="84" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EC30BD7A-5C78-4B14-A6A6-9BC7B2C3D0C7}" name="Run" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{18453C30-4E80-4650-B4FA-E5F8D7E1B60F}" name="Sample" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{9F23F74C-B0D9-472D-A40F-98F77AB0EEFA}" name="n_estimators" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{2F8CA281-8DBB-40D6-968E-983FBD3DFCAE}" name="min_samples_leaf" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{F35667FF-8FFE-4FC8-BDFC-8EB2CE60F9B3}" name="max_features" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{B84852A0-AAA8-4481-A551-E3FCB148CE2F}" name="criterion" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{D7F6E1D6-D836-4F5C-B567-7DD6B789DB4B}" name="Fold 1" dataDxfId="96" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{35FBD358-7EF1-49AD-878F-F9FAE78DBE21}" name="Fold 2" dataDxfId="95" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{2CE6521A-AC88-47F7-A203-1E45E07A1A53}" name="Fold 3" dataDxfId="94" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{C3183928-4F99-4BA7-8649-EBE1A5A53F06}" name="Fold 4" dataDxfId="93" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{E18BBC7A-034A-4EC7-8087-5F35E5D53233}" name="Std" dataDxfId="92" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{F43C551F-182D-478D-A59F-40BC9C4B246E}" name="Average" dataDxfId="91" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{15BEC2E2-5B93-43DF-8F8A-9A8D9E114D50}" name="Table14" displayName="Table14" ref="C5:N60" totalsRowShown="0" headerRowDxfId="90" dataDxfId="88" headerRowBorderDxfId="89" tableBorderDxfId="87" totalsRowBorderDxfId="86">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="72" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="71" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="70" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="69" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="68" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="67" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{810BB60F-1B76-4321-9BD2-903638F82C72}" name="Run" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{B4C4B0DE-DE4D-4E71-9D85-7A895D5A1D41}" name="Sample" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{CB248AA7-3B9F-4828-973E-C7074281CD04}" name="n_estimators" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{A7195B87-7C31-4A47-9129-268B00B8DC83}" name="min_samples_leaf" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{129FE480-2414-4A98-940E-40AB6C44F989}" name="max_features" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{9FA6F33B-F837-4062-94F5-B81E7B88364E}" name="criterion" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{99814072-BB27-468A-9880-7C20FF30C771}" name="Fold 1" dataDxfId="79" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{ACC733A9-6556-4085-A37D-D42D1A4ADB8D}" name="Fold 2" dataDxfId="78" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{7A06D9E9-9D49-4A02-BFB3-E19EC311DE57}" name="Fold 3" dataDxfId="77" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{F45D21E7-825D-4613-9F62-252301C1D246}" name="Fold 4" dataDxfId="76" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{BC234604-BA77-46FB-876E-1C6249E24DE3}" name="Std" dataDxfId="75" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8EA10789-0441-491C-B170-BFC87AEEE5B6}" name="Average" dataDxfId="74" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA76DCA9-166E-4A23-977F-CF6D1C75C214}" name="Table143" displayName="Table143" ref="C5:N60" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="C5:N60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:N60">
     <sortCondition descending="1" ref="N5:N60"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="55" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="54" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="53" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="52" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="51" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{EDA2B662-AB04-419B-A789-A2B272BBC4E6}" name="Run" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{E609A093-81C5-410A-9D9E-869CE128AE4C}" name="Sample" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{EE8A165D-E762-4584-8EE0-4BC8F0580412}" name="n_estimators" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{C5D465F1-3F3E-46C1-886F-FB6F5B9923F4}" name="min_samples_leaf" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{291CE007-B13B-477B-B108-A9F03C24780B}" name="max_features" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{B52C874C-38FB-448E-A8EA-FA8ADF4A1786}" name="criterion" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{DB9EBA6A-68CF-4BBA-BCE2-35546568378A}" name="Fold 1" dataDxfId="62" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{9A140558-5926-40E1-BCD6-18AEB1DDA10D}" name="Fold 2" dataDxfId="61" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9EAD266F-4CFB-4634-9999-23CF219DA292}" name="Fold 3" dataDxfId="60" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6C476875-ED1C-4C3A-8BB3-2540F9262BA6}" name="Fold 4" dataDxfId="59" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3F487272-6E32-4017-87DD-402A168651D4}" name="Std" dataDxfId="58" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{8FF5FF39-3061-48B2-B09A-EA65D52EF0F0}" name="Average" dataDxfId="57" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6A36CAC-3379-436B-97BD-288557F1EDCA}" name="Table1435" displayName="Table1435" ref="C5:L60" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="C5:L60" xr:uid="{C073E835-6AE7-4742-9BA3-EF311ABFBE9F}"/>
   <sortState ref="C6:L60">
     <sortCondition descending="1" ref="L5:L60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="36" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="35" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{1F21FD84-4367-495B-BFF8-617EA8E66DCA}" name="n_estimators" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{76AB914C-8FEA-4A97-B268-4F7952A7162A}" name="min_samples_leaf" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{FF094FB8-B226-4439-A98D-CD5F67F1B6F2}" name="max_features" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{B800FAC6-D93D-4724-BBE5-B799D4D2BB4E}" name="criterion" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{78721F8D-637E-4110-98E0-E7C59950DAC3}" name="Fold 1" dataDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{CEBA9BED-D1E7-4F1E-B615-25BA3F0B5DB1}" name="Fold 2" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C10A09F5-C68A-4A07-8199-567055EE0D67}" name="Fold 3" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{0A5B1A98-DA47-4882-80B7-07602E12941D}" name="Fold 4" dataDxfId="44" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{627E017A-9B1A-44B1-9E78-1E19823E3255}" name="Std" dataDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{13AF8644-46BA-41CB-B312-DDAE98BB5A8E}" name="Average" dataDxfId="42" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C3:M6" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="C3:M6" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C4:M6">
     <sortCondition descending="1" ref="M3:M6"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{32D49309-DDD5-4766-BA3B-E6545A571AF2}" name="Experiment No" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E28" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FEA0C65-2BDB-4DB5-BC78-117EFFC6E5F4}" name="Table5" displayName="Table5" ref="C5:E28" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
   <sortState ref="C6:E28">
     <sortCondition descending="1" ref="E5:E28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{8F495C0C-56AF-4889-9054-01AC83F852C1}" name="No." dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{99532D23-A0E7-49D7-889A-7925D29CE980}" name="Feature" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{48A9B82F-B58B-4C4E-BEDD-789B8C031B7E}" name="Significance" dataDxfId="21" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A2387CD0-9230-421E-A797-F66273C05B24}" name="Table59" displayName="Table59" ref="C5:E28" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A2387CD0-9230-421E-A797-F66273C05B24}" name="Table59" displayName="Table59" ref="C5:E28" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
   <sortState ref="C6:E28">
     <sortCondition descending="1" ref="E5:E28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F70DB16-4613-4654-847F-9DB72422BB67}" name="No." dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0CB72B46-4696-4101-A594-289243B40264}" name="Feature" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E5F3193B-C6FE-4AE7-8EFE-FDF6D5234DE7}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{3F70DB16-4613-4654-847F-9DB72422BB67}" name="No." dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{0CB72B46-4696-4101-A594-289243B40264}" name="Feature" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E5F3193B-C6FE-4AE7-8EFE-FDF6D5234DE7}" name="Significance" dataDxfId="14" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C1851EB-E4C8-431D-8C60-199CC7129B8A}" name="Table58" displayName="Table58" ref="C5:E28" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C1851EB-E4C8-431D-8C60-199CC7129B8A}" name="Table58" displayName="Table58" ref="C5:E28" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="C5:E28" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
   <sortState ref="C6:E28">
     <sortCondition descending="1" ref="E5:E28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7463D4D-4E37-4C4F-AF90-8C359D8DDF9E}" name="No." dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7542D23F-DD92-4E79-A213-6DD8F6C191F8}" name="Feature" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{AA80DD01-B626-41B0-B74F-014FE63A52DA}" name="Significance" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{B7463D4D-4E37-4C4F-AF90-8C359D8DDF9E}" name="No." dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7542D23F-DD92-4E79-A213-6DD8F6C191F8}" name="Feature" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{AA80DD01-B626-41B0-B74F-014FE63A52DA}" name="Significance" dataDxfId="7" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{12B63431-D781-4E22-82D2-7E818F9CF7F0}" name="Table5810" displayName="Table5810" ref="C5:E31" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="C5:E31" xr:uid="{1CB72A68-2498-4A19-92FB-F84DD5DEC384}"/>
+  <sortState ref="C6:E31">
+    <sortCondition descending="1" ref="E5:E31"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{17CDE432-02DC-4900-8C6F-1BCA4E6E10C8}" name="No." dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{70F707D9-B02C-4CC0-99FA-01E2E0D7C0F6}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{169ACEC1-8299-43A3-86D5-650583E8A4B6}" name="Significance" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24622,7 +26005,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24998,8 +26381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00077F86-CE8B-4E13-9FC0-C899A1A0B134}">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25069,7 +26452,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F6</f>
+        <f t="shared" ref="E6:E22" si="0">(1/(1+SUM($E$23:$E$28)))*F6</f>
         <v>0.12664518846030778</v>
       </c>
       <c r="F6" s="37">
@@ -25084,7 +26467,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F7</f>
+        <f t="shared" si="0"/>
         <v>9.6587530124794957E-2</v>
       </c>
       <c r="F7" s="37">
@@ -25099,7 +26482,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F8</f>
+        <f t="shared" si="0"/>
         <v>6.379213680278252E-2</v>
       </c>
       <c r="F8" s="37">
@@ -25114,7 +26497,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F9</f>
+        <f t="shared" si="0"/>
         <v>6.0120798091749382E-2</v>
       </c>
       <c r="F9" s="37">
@@ -25129,7 +26512,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F10</f>
+        <f t="shared" si="0"/>
         <v>5.5998636878216941E-2</v>
       </c>
       <c r="F10" s="37">
@@ -25144,7 +26527,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F11</f>
+        <f t="shared" si="0"/>
         <v>5.4749847034424801E-2</v>
       </c>
       <c r="F11" s="37">
@@ -25159,7 +26542,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F12</f>
+        <f t="shared" si="0"/>
         <v>5.3039865150705995E-2</v>
       </c>
       <c r="F12" s="37">
@@ -25174,7 +26557,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F13</f>
+        <f t="shared" si="0"/>
         <v>5.2885597250174853E-2</v>
       </c>
       <c r="F13" s="37">
@@ -25189,7 +26572,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F14</f>
+        <f t="shared" si="0"/>
         <v>4.317360007229018E-2</v>
       </c>
       <c r="F14" s="37">
@@ -25204,7 +26587,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F15</f>
+        <f t="shared" si="0"/>
         <v>4.0900484120580047E-2</v>
       </c>
       <c r="F15" s="37">
@@ -25219,7 +26602,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F16</f>
+        <f t="shared" si="0"/>
         <v>3.7205652341404501E-2</v>
       </c>
       <c r="F16" s="37">
@@ -25234,7 +26617,7 @@
         <v>51</v>
       </c>
       <c r="E17" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F17</f>
+        <f t="shared" si="0"/>
         <v>3.7040510152264644E-2</v>
       </c>
       <c r="F17" s="37">
@@ -25249,7 +26632,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F18</f>
+        <f t="shared" si="0"/>
         <v>3.4150136637468395E-2</v>
       </c>
       <c r="F18" s="37">
@@ -25264,7 +26647,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F19</f>
+        <f t="shared" si="0"/>
         <v>3.3632996913966977E-2</v>
       </c>
       <c r="F19" s="37">
@@ -25279,7 +26662,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F20</f>
+        <f t="shared" si="0"/>
         <v>3.2153128437239865E-2</v>
       </c>
       <c r="F20" s="37">
@@ -25294,7 +26677,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F21</f>
+        <f t="shared" si="0"/>
         <v>3.0586150532952629E-2</v>
       </c>
       <c r="F21" s="37">
@@ -25309,7 +26692,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="55">
-        <f>(1/(1+SUM($E$23:$E$28)))*F22</f>
+        <f t="shared" si="0"/>
         <v>2.7683609858100703E-2</v>
       </c>
       <c r="F22" s="37">
@@ -25429,7 +26812,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="D28" sqref="D26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25799,4 +27182,408 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F874E-2E60-4876-8BD7-7A140B27D31C}">
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>96</v>
+      </c>
+      <c r="F3" s="53">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="41">
+        <v>8</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.13446714000000001</v>
+      </c>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="41">
+        <v>6</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="55">
+        <v>9.068946E-2</v>
+      </c>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="41">
+        <v>7</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="55">
+        <v>5.8627470000000001E-2</v>
+      </c>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="55">
+        <v>5.5475160000000003E-2</v>
+      </c>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>4</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="55">
+        <v>5.2115649999999999E-2</v>
+      </c>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>3</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="55">
+        <v>5.1443639999999999E-2</v>
+      </c>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>5</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="55">
+        <v>5.0728269999999999E-2</v>
+      </c>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <v>2</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="55">
+        <v>5.0184659999999999E-2</v>
+      </c>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <v>9</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="55">
+        <v>4.137031E-2</v>
+      </c>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <v>10</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="55">
+        <v>3.7103240000000003E-2</v>
+      </c>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="41">
+        <v>11</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="55">
+        <v>3.3366369999999999E-2</v>
+      </c>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="41">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="55">
+        <v>3.030242E-2</v>
+      </c>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="55">
+        <v>2.98718E-2</v>
+      </c>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="41">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="55">
+        <v>2.7910689999999998E-2</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="41">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="55">
+        <v>2.6639110000000001E-2</v>
+      </c>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="41">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="55">
+        <v>2.5489399999999999E-2</v>
+      </c>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="44">
+        <v>26</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="56">
+        <v>2.4434129999999998E-2</v>
+      </c>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="44">
+        <v>12</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="56">
+        <v>2.350476E-2</v>
+      </c>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="44">
+        <v>25</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="56">
+        <v>2.281644E-2</v>
+      </c>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="63">
+        <v>23</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="56">
+        <v>2.1889530000000001E-2</v>
+      </c>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="44">
+        <v>13</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="57">
+        <v>2.084022E-2</v>
+      </c>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="44">
+        <v>21</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1.9522089999999999E-2</v>
+      </c>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="53">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1.9319360000000001E-2</v>
+      </c>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="53">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="62">
+        <v>1.801763E-2</v>
+      </c>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="53">
+        <v>20</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="62">
+        <v>1.69721E-2</v>
+      </c>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="41">
+        <v>18</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="62">
+        <v>1.6898960000000001E-2</v>
+      </c>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>